--- a/Översikt ESKILSTUNA.xlsx
+++ b/Översikt ESKILSTUNA.xlsx
@@ -575,7 +575,7 @@
         <v>45217</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -677,7 +677,7 @@
         <v>45946</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -782,7 +782,7 @@
         <v>44426</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -885,7 +885,7 @@
         <v>44503.65498842593</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -983,7 +983,7 @@
         <v>45763</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1079,7 +1079,7 @@
         <v>45904.57581018518</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1175,7 +1175,7 @@
         <v>44470</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1270,7 +1270,7 @@
         <v>45034</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1367,7 +1367,7 @@
         <v>44581</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1460,7 +1460,7 @@
         <v>44953</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1561,7 +1561,7 @@
         <v>44237</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1658,7 +1658,7 @@
         <v>45063</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         <v>44789</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1838,7 +1838,7 @@
         <v>44657</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1934,7 +1934,7 @@
         <v>44916</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2021,7 +2021,7 @@
         <v>45805.49724537037</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2113,7 +2113,7 @@
         <v>45810.55597222222</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2205,7 +2205,7 @@
         <v>44953</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2305,7 +2305,7 @@
         <v>45379.46256944445</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2397,7 +2397,7 @@
         <v>45881.67006944444</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2488,7 +2488,7 @@
         <v>45715</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2575,7 +2575,7 @@
         <v>45044</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2662,7 +2662,7 @@
         <v>45194</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2757,7 +2757,7 @@
         <v>45763</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2848,7 +2848,7 @@
         <v>44284</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2948,7 +2948,7 @@
         <v>45763</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3039,7 +3039,7 @@
         <v>45686</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3126,7 +3126,7 @@
         <v>44530</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3212,7 +3212,7 @@
         <v>45798.44185185185</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3303,7 +3303,7 @@
         <v>45798.44422453704</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3394,7 +3394,7 @@
         <v>45566</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3484,7 +3484,7 @@
         <v>45897.55863425926</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3579,7 +3579,7 @@
         <v>44930</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3674,7 +3674,7 @@
         <v>46001.82864583333</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3764,7 +3764,7 @@
         <v>45655.74069444444</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3855,7 +3855,7 @@
         <v>45603</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3941,7 +3941,7 @@
         <v>44803</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4026,7 +4026,7 @@
         <v>44582</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4116,7 +4116,7 @@
         <v>44502</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4206,7 +4206,7 @@
         <v>44515</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4296,7 +4296,7 @@
         <v>45077</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4381,7 +4381,7 @@
         <v>45603</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4466,7 +4466,7 @@
         <v>44840</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4555,7 +4555,7 @@
         <v>44918</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4640,7 +4640,7 @@
         <v>45685</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4730,7 +4730,7 @@
         <v>45691</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4824,7 +4824,7 @@
         <v>44368</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4914,7 +4914,7 @@
         <v>45849</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5008,7 +5008,7 @@
         <v>45926</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5097,7 +5097,7 @@
         <v>45946.66234953704</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5182,7 +5182,7 @@
         <v>45946.65936342593</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5267,7 +5267,7 @@
         <v>45849.77498842592</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5361,7 +5361,7 @@
         <v>45957.47642361111</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5446,7 +5446,7 @@
         <v>45012</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5536,7 +5536,7 @@
         <v>44904.35087962963</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5621,7 +5621,7 @@
         <v>44984.37708333333</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5710,7 +5710,7 @@
         <v>46009.61564814814</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5799,7 +5799,7 @@
         <v>45107.03777777778</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5893,7 +5893,7 @@
         <v>44452</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5978,7 +5978,7 @@
         <v>44854</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6067,7 +6067,7 @@
         <v>44834</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6156,7 +6156,7 @@
         <v>45385.54006944445</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6246,7 +6246,7 @@
         <v>45103</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6331,7 +6331,7 @@
         <v>45120</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6421,7 +6421,7 @@
         <v>44295</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6483,7 +6483,7 @@
         <v>44410</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6540,7 +6540,7 @@
         <v>44245</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6597,7 +6597,7 @@
         <v>44329</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6654,7 +6654,7 @@
         <v>44432</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6711,7 +6711,7 @@
         <v>44797</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6768,7 +6768,7 @@
         <v>44473</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6825,7 +6825,7 @@
         <v>44262</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6882,7 +6882,7 @@
         <v>44712</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6939,7 +6939,7 @@
         <v>44490</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6996,7 +6996,7 @@
         <v>44470</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7053,7 +7053,7 @@
         <v>44245</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7115,7 +7115,7 @@
         <v>44608</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7172,7 +7172,7 @@
         <v>44517.77648148148</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7229,7 +7229,7 @@
         <v>44517.78018518518</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7286,7 +7286,7 @@
         <v>44245.82162037037</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7348,7 +7348,7 @@
         <v>44245</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7410,7 +7410,7 @@
         <v>44513.88376157408</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7467,7 +7467,7 @@
         <v>44781</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7524,7 +7524,7 @@
         <v>44588</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7586,7 +7586,7 @@
         <v>44671</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7643,7 +7643,7 @@
         <v>44763</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7700,7 +7700,7 @@
         <v>44403</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7757,7 +7757,7 @@
         <v>44432</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7814,7 +7814,7 @@
         <v>44432</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7871,7 +7871,7 @@
         <v>44533</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7928,7 +7928,7 @@
         <v>44470</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7985,7 +7985,7 @@
         <v>44516</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -8042,7 +8042,7 @@
         <v>44754.58148148148</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8104,7 +8104,7 @@
         <v>44746</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -8161,7 +8161,7 @@
         <v>44683</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8223,7 +8223,7 @@
         <v>44453</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8280,7 +8280,7 @@
         <v>44712</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8337,7 +8337,7 @@
         <v>44799</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8394,7 +8394,7 @@
         <v>44628</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8451,7 +8451,7 @@
         <v>44683</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8508,7 +8508,7 @@
         <v>44405</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8565,7 +8565,7 @@
         <v>44746</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8622,7 +8622,7 @@
         <v>44746</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8679,7 +8679,7 @@
         <v>44449</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8741,7 +8741,7 @@
         <v>44239</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8803,7 +8803,7 @@
         <v>44533.47033564815</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8860,7 +8860,7 @@
         <v>44524</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8917,7 +8917,7 @@
         <v>44689</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8974,7 +8974,7 @@
         <v>44746</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -9036,7 +9036,7 @@
         <v>44349</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -9093,7 +9093,7 @@
         <v>44350</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -9150,7 +9150,7 @@
         <v>44468</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9207,7 +9207,7 @@
         <v>44245</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9269,7 +9269,7 @@
         <v>44533</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9326,7 +9326,7 @@
         <v>44784</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9383,7 +9383,7 @@
         <v>44280</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9440,7 +9440,7 @@
         <v>44449</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9502,7 +9502,7 @@
         <v>44648</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9559,7 +9559,7 @@
         <v>44544</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9616,7 +9616,7 @@
         <v>44588.58922453703</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9673,7 +9673,7 @@
         <v>44628</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9730,7 +9730,7 @@
         <v>44536</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9787,7 +9787,7 @@
         <v>44536</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9844,7 +9844,7 @@
         <v>44328</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9901,7 +9901,7 @@
         <v>44781</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9958,7 +9958,7 @@
         <v>44804</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -10015,7 +10015,7 @@
         <v>44734</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -10072,7 +10072,7 @@
         <v>44588</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -10129,7 +10129,7 @@
         <v>44461</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10186,7 +10186,7 @@
         <v>44238</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10248,7 +10248,7 @@
         <v>44578.55539351852</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10305,7 +10305,7 @@
         <v>44308</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10362,7 +10362,7 @@
         <v>44284</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10419,7 +10419,7 @@
         <v>44379</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10476,7 +10476,7 @@
         <v>44362</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10533,7 +10533,7 @@
         <v>44336</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10590,7 +10590,7 @@
         <v>44699</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10652,7 +10652,7 @@
         <v>44515</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10714,7 +10714,7 @@
         <v>44550</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10771,7 +10771,7 @@
         <v>44482.55003472222</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10828,7 +10828,7 @@
         <v>44722.55524305555</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10890,7 +10890,7 @@
         <v>44789</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10947,7 +10947,7 @@
         <v>44804</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -11004,7 +11004,7 @@
         <v>44490</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -11061,7 +11061,7 @@
         <v>44573</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -11118,7 +11118,7 @@
         <v>44499</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11175,7 +11175,7 @@
         <v>44844</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11232,7 +11232,7 @@
         <v>44783</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11289,7 +11289,7 @@
         <v>44654</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11346,7 +11346,7 @@
         <v>44449</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11408,7 +11408,7 @@
         <v>44432</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11465,7 +11465,7 @@
         <v>44490</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11522,7 +11522,7 @@
         <v>44435</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11579,7 +11579,7 @@
         <v>44616</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11636,7 +11636,7 @@
         <v>44578.55100694444</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11693,7 +11693,7 @@
         <v>44426</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11750,7 +11750,7 @@
         <v>44426</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11807,7 +11807,7 @@
         <v>44510</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11864,7 +11864,7 @@
         <v>44643</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11921,7 +11921,7 @@
         <v>44781</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11978,7 +11978,7 @@
         <v>44636</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -12035,7 +12035,7 @@
         <v>44782</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -12092,7 +12092,7 @@
         <v>44865</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -12154,7 +12154,7 @@
         <v>44533</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12211,7 +12211,7 @@
         <v>44748.47054398148</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12268,7 +12268,7 @@
         <v>44454</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12325,7 +12325,7 @@
         <v>44251</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12382,7 +12382,7 @@
         <v>44658</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12444,7 +12444,7 @@
         <v>44804</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12501,7 +12501,7 @@
         <v>45365.44949074074</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12558,7 +12558,7 @@
         <v>44903</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12615,7 +12615,7 @@
         <v>45005</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12672,7 +12672,7 @@
         <v>45099</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12729,7 +12729,7 @@
         <v>44755</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12786,7 +12786,7 @@
         <v>44664</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12848,7 +12848,7 @@
         <v>45734</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12905,7 +12905,7 @@
         <v>44886</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12962,7 +12962,7 @@
         <v>44946</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -13019,7 +13019,7 @@
         <v>45005</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -13076,7 +13076,7 @@
         <v>45307</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -13138,7 +13138,7 @@
         <v>45266.61707175926</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13195,7 +13195,7 @@
         <v>44937.42351851852</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13252,7 +13252,7 @@
         <v>44888.63946759259</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13309,7 +13309,7 @@
         <v>45012.32734953704</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13371,7 +13371,7 @@
         <v>45544</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13428,7 +13428,7 @@
         <v>45020</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13485,7 +13485,7 @@
         <v>44516</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13542,7 +13542,7 @@
         <v>45341</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13599,7 +13599,7 @@
         <v>45622.6533912037</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13656,7 +13656,7 @@
         <v>45407</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13713,7 +13713,7 @@
         <v>45240.35564814815</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13770,7 +13770,7 @@
         <v>44434</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13827,7 +13827,7 @@
         <v>45608.69983796297</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13889,7 +13889,7 @@
         <v>45211.53525462963</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13946,7 +13946,7 @@
         <v>44768</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -14008,7 +14008,7 @@
         <v>44819</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -14065,7 +14065,7 @@
         <v>45514</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -14122,7 +14122,7 @@
         <v>45301</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14179,7 +14179,7 @@
         <v>44874</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14236,7 +14236,7 @@
         <v>44942</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14293,7 +14293,7 @@
         <v>44634.64108796296</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14350,7 +14350,7 @@
         <v>45007.62168981481</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14407,7 +14407,7 @@
         <v>44701</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14464,7 +14464,7 @@
         <v>44525.9009375</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14521,7 +14521,7 @@
         <v>44525.9021875</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14578,7 +14578,7 @@
         <v>44729</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14640,7 +14640,7 @@
         <v>44582</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14697,7 +14697,7 @@
         <v>45680</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14754,7 +14754,7 @@
         <v>44889</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14811,7 +14811,7 @@
         <v>45798.63770833334</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14868,7 +14868,7 @@
         <v>45798.64900462963</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14925,7 +14925,7 @@
         <v>44886</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14982,7 +14982,7 @@
         <v>45798.67103009259</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -15039,7 +15039,7 @@
         <v>45670</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -15096,7 +15096,7 @@
         <v>45163</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15153,7 +15153,7 @@
         <v>45798.64447916667</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15210,7 +15210,7 @@
         <v>45798.64721064815</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15267,7 +15267,7 @@
         <v>45798.66695601852</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15324,7 +15324,7 @@
         <v>45798.43306712963</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15386,7 +15386,7 @@
         <v>45798.43482638889</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15448,7 +15448,7 @@
         <v>45798</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15510,7 +15510,7 @@
         <v>44804</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15567,7 +15567,7 @@
         <v>45568.90701388889</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15629,7 +15629,7 @@
         <v>45568.90762731482</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15691,7 +15691,7 @@
         <v>44483</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15753,7 +15753,7 @@
         <v>44844</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15810,7 +15810,7 @@
         <v>44844</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15867,7 +15867,7 @@
         <v>44883</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15924,7 +15924,7 @@
         <v>45798.43913194445</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15986,7 +15986,7 @@
         <v>45660.61137731482</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -16048,7 +16048,7 @@
         <v>45708.5396412037</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -16105,7 +16105,7 @@
         <v>45266</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16162,7 +16162,7 @@
         <v>45544</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16219,7 +16219,7 @@
         <v>44626</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16276,7 +16276,7 @@
         <v>45365.44756944444</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16333,7 +16333,7 @@
         <v>45041</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16390,7 +16390,7 @@
         <v>44889</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16447,7 +16447,7 @@
         <v>45006</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16504,7 +16504,7 @@
         <v>45889.86215277778</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16566,7 +16566,7 @@
         <v>45889.87027777778</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16628,7 +16628,7 @@
         <v>44886</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16685,7 +16685,7 @@
         <v>45894.50094907408</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16742,7 +16742,7 @@
         <v>45414.60868055555</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16804,7 +16804,7 @@
         <v>45680</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16861,7 +16861,7 @@
         <v>45897.47975694444</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16923,7 +16923,7 @@
         <v>45897.64649305555</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16980,7 +16980,7 @@
         <v>44536.35326388889</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -17042,7 +17042,7 @@
         <v>44889</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -17099,7 +17099,7 @@
         <v>45897.41643518519</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17161,7 +17161,7 @@
         <v>45897</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17223,7 +17223,7 @@
         <v>45429</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17280,7 +17280,7 @@
         <v>45901.65155092593</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17337,7 +17337,7 @@
         <v>45898.5619212963</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17394,7 +17394,7 @@
         <v>45898.54829861111</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17451,7 +17451,7 @@
         <v>45685</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17508,7 +17508,7 @@
         <v>45568.40231481481</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17565,7 +17565,7 @@
         <v>45817.76539351852</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17622,7 +17622,7 @@
         <v>45217</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17679,7 +17679,7 @@
         <v>44537</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17736,7 +17736,7 @@
         <v>45560</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17793,7 +17793,7 @@
         <v>44544</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17850,7 +17850,7 @@
         <v>44516</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17907,7 +17907,7 @@
         <v>45695</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17964,7 +17964,7 @@
         <v>45695</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -18021,7 +18021,7 @@
         <v>45245</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -18083,7 +18083,7 @@
         <v>45905.58692129629</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18140,7 +18140,7 @@
         <v>44915</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18197,7 +18197,7 @@
         <v>44983</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18254,7 +18254,7 @@
         <v>45826.66998842593</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18311,7 +18311,7 @@
         <v>45826.67109953704</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18368,7 +18368,7 @@
         <v>45905</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18425,7 +18425,7 @@
         <v>45910</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18482,7 +18482,7 @@
         <v>45826.52690972222</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18539,7 +18539,7 @@
         <v>45826.72251157407</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18596,7 +18596,7 @@
         <v>45695</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18653,7 +18653,7 @@
         <v>45637.43685185185</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18710,7 +18710,7 @@
         <v>45245</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18772,7 +18772,7 @@
         <v>45006</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18829,7 +18829,7 @@
         <v>45826.71982638889</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18886,7 +18886,7 @@
         <v>45062.34902777777</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18943,7 +18943,7 @@
         <v>44735.28875</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -19000,7 +19000,7 @@
         <v>45334.70190972222</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -19057,7 +19057,7 @@
         <v>45271</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19114,7 +19114,7 @@
         <v>45831.47563657408</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19171,7 +19171,7 @@
         <v>45918.45792824074</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19228,7 +19228,7 @@
         <v>44930</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19285,7 +19285,7 @@
         <v>44858.57895833333</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19342,7 +19342,7 @@
         <v>45667</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19399,7 +19399,7 @@
         <v>45923</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19456,7 +19456,7 @@
         <v>45079</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19513,7 +19513,7 @@
         <v>45923</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19570,7 +19570,7 @@
         <v>45833.39927083333</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19627,7 +19627,7 @@
         <v>45832.56721064815</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19689,7 +19689,7 @@
         <v>45049.40128472223</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19746,7 +19746,7 @@
         <v>44432</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19803,7 +19803,7 @@
         <v>45464.45482638889</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19860,7 +19860,7 @@
         <v>45036</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19917,7 +19917,7 @@
         <v>45926</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19974,7 +19974,7 @@
         <v>45926</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -20031,7 +20031,7 @@
         <v>45685</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20088,7 +20088,7 @@
         <v>45685</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20145,7 +20145,7 @@
         <v>45237.71393518519</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20202,7 +20202,7 @@
         <v>45670</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20264,7 +20264,7 @@
         <v>45926</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20321,7 +20321,7 @@
         <v>44495</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20378,7 +20378,7 @@
         <v>45931</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20435,7 +20435,7 @@
         <v>45931.67982638889</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20492,7 +20492,7 @@
         <v>45093</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20549,7 +20549,7 @@
         <v>44881</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20606,7 +20606,7 @@
         <v>45715</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20663,7 +20663,7 @@
         <v>44799</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20720,7 +20720,7 @@
         <v>45093</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20777,7 +20777,7 @@
         <v>45582.95277777778</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20834,7 +20834,7 @@
         <v>44616.71168981482</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20891,7 +20891,7 @@
         <v>44979</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20948,7 +20948,7 @@
         <v>45103</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -21005,7 +21005,7 @@
         <v>45917</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21062,7 +21062,7 @@
         <v>45694.4634375</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21119,7 +21119,7 @@
         <v>45945.38439814815</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21176,7 +21176,7 @@
         <v>45846</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21238,7 +21238,7 @@
         <v>45846.44305555556</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21300,7 +21300,7 @@
         <v>45846.44430555555</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21362,7 +21362,7 @@
         <v>44490</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21419,7 +21419,7 @@
         <v>45946.71481481481</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21476,7 +21476,7 @@
         <v>45946.71799768518</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21533,7 +21533,7 @@
         <v>45849.79363425926</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21590,7 +21590,7 @@
         <v>45849.80846064815</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21647,7 +21647,7 @@
         <v>44634</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21704,7 +21704,7 @@
         <v>44955</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21761,7 +21761,7 @@
         <v>45950.41737268519</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21818,7 +21818,7 @@
         <v>45953.66923611111</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21875,7 +21875,7 @@
         <v>45953.34796296297</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21932,7 +21932,7 @@
         <v>45953.44787037037</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21989,7 +21989,7 @@
         <v>45953.44184027778</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22046,7 +22046,7 @@
         <v>45953.44493055555</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22103,7 +22103,7 @@
         <v>45953</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22160,7 +22160,7 @@
         <v>45953.45186342593</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22217,7 +22217,7 @@
         <v>45953.4840625</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22274,7 +22274,7 @@
         <v>44946</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22331,7 +22331,7 @@
         <v>45867</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22388,7 +22388,7 @@
         <v>45604.59530092592</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22445,7 +22445,7 @@
         <v>45869.28329861111</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22502,7 +22502,7 @@
         <v>45954.70034722222</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22559,7 +22559,7 @@
         <v>45954.69859953703</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22616,7 +22616,7 @@
         <v>45954.72381944444</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22673,7 +22673,7 @@
         <v>44873</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22730,7 +22730,7 @@
         <v>44928</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22787,7 +22787,7 @@
         <v>44946</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22844,7 +22844,7 @@
         <v>45460</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22901,7 +22901,7 @@
         <v>45875</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22958,7 +22958,7 @@
         <v>45198</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23015,7 +23015,7 @@
         <v>45537.57546296297</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23072,7 +23072,7 @@
         <v>45341.55400462963</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23129,7 +23129,7 @@
         <v>45103</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23191,7 +23191,7 @@
         <v>45496.61991898148</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23248,7 +23248,7 @@
         <v>45670</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23305,7 +23305,7 @@
         <v>44953</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23367,7 +23367,7 @@
         <v>45225.6690625</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23424,7 +23424,7 @@
         <v>45670.77166666667</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23481,7 +23481,7 @@
         <v>45737</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23538,7 +23538,7 @@
         <v>44965</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23595,7 +23595,7 @@
         <v>45966.52162037037</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23652,7 +23652,7 @@
         <v>45966.69065972222</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23709,7 +23709,7 @@
         <v>45966.70978009259</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23766,7 +23766,7 @@
         <v>45966.49600694444</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23823,7 +23823,7 @@
         <v>45967.67565972222</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23880,7 +23880,7 @@
         <v>44839</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23937,7 +23937,7 @@
         <v>44965</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23999,7 +23999,7 @@
         <v>44861</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24061,7 +24061,7 @@
         <v>44998</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24123,7 +24123,7 @@
         <v>44998</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24185,7 +24185,7 @@
         <v>45058</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24242,7 +24242,7 @@
         <v>45974.71255787037</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24299,7 +24299,7 @@
         <v>45885</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24356,7 +24356,7 @@
         <v>45170</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24413,7 +24413,7 @@
         <v>45974.72075231482</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24470,7 +24470,7 @@
         <v>45974.71702546296</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24527,7 +24527,7 @@
         <v>45974.7244212963</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24584,7 +24584,7 @@
         <v>44490</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24641,7 +24641,7 @@
         <v>44904</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24703,7 +24703,7 @@
         <v>44499</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24760,7 +24760,7 @@
         <v>45965</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24817,7 +24817,7 @@
         <v>45977.81913194444</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24874,7 +24874,7 @@
         <v>45407</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24931,7 +24931,7 @@
         <v>45979.47262731481</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24988,7 +24988,7 @@
         <v>44469</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25045,7 +25045,7 @@
         <v>45979.47452546296</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25102,7 +25102,7 @@
         <v>45979.47876157407</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25159,7 +25159,7 @@
         <v>44626</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25216,7 +25216,7 @@
         <v>45119</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25278,7 +25278,7 @@
         <v>44803.35975694445</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25335,7 +25335,7 @@
         <v>44803.37219907407</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25392,7 +25392,7 @@
         <v>44426</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25449,7 +25449,7 @@
         <v>45229</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25511,7 +25511,7 @@
         <v>45303.44210648148</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25568,7 +25568,7 @@
         <v>45303.44663194445</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25625,7 +25625,7 @@
         <v>45209</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25682,7 +25682,7 @@
         <v>45973</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25744,7 +25744,7 @@
         <v>45209.4671875</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25801,7 +25801,7 @@
         <v>45004</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25858,7 +25858,7 @@
         <v>45750.48094907407</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25915,7 +25915,7 @@
         <v>45604.63023148148</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25972,7 +25972,7 @@
         <v>45992.63881944444</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26029,7 +26029,7 @@
         <v>45992.65880787037</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26086,7 +26086,7 @@
         <v>45146</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26148,7 +26148,7 @@
         <v>45992.60670138889</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26205,7 +26205,7 @@
         <v>45992.619375</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26262,7 +26262,7 @@
         <v>45992.61385416667</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26319,7 +26319,7 @@
         <v>44467</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26376,7 +26376,7 @@
         <v>45992.64505787037</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26433,7 +26433,7 @@
         <v>45994.75143518519</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26490,7 +26490,7 @@
         <v>45166.54261574074</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26547,7 +26547,7 @@
         <v>45603</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26604,7 +26604,7 @@
         <v>45994.74487268519</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26661,7 +26661,7 @@
         <v>45077.52649305556</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26718,7 +26718,7 @@
         <v>45999.56599537037</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26775,7 +26775,7 @@
         <v>45999</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26837,7 +26837,7 @@
         <v>45303</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26894,7 +26894,7 @@
         <v>45061</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26956,7 +26956,7 @@
         <v>45999.38288194445</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -27013,7 +27013,7 @@
         <v>45756</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -27075,7 +27075,7 @@
         <v>45999.63010416667</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27157,7 +27157,7 @@
         <v>44732</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27214,7 +27214,7 @@
         <v>46001.33653935185</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27271,7 +27271,7 @@
         <v>46043.42224537037</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27328,7 +27328,7 @@
         <v>46000.44707175926</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27390,7 +27390,7 @@
         <v>45643.73109953704</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27447,7 +27447,7 @@
         <v>46043.41954861111</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27504,7 +27504,7 @@
         <v>46001</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27566,7 +27566,7 @@
         <v>45999.90451388889</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27628,7 +27628,7 @@
         <v>46000.38015046297</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27690,7 +27690,7 @@
         <v>45672</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27747,7 +27747,7 @@
         <v>44837</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27809,7 +27809,7 @@
         <v>45518.66082175926</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27871,7 +27871,7 @@
         <v>45655.72868055556</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27933,7 +27933,7 @@
         <v>44917</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27990,7 +27990,7 @@
         <v>45950</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -28047,7 +28047,7 @@
         <v>44886</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -28104,7 +28104,7 @@
         <v>44671</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28161,7 +28161,7 @@
         <v>44284</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28218,7 +28218,7 @@
         <v>44285</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28275,7 +28275,7 @@
         <v>45435</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28332,7 +28332,7 @@
         <v>46048</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28389,7 +28389,7 @@
         <v>44468</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28446,7 +28446,7 @@
         <v>44942</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28503,7 +28503,7 @@
         <v>44572.44108796296</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28560,7 +28560,7 @@
         <v>44797.38288194445</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28617,7 +28617,7 @@
         <v>45965</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28674,7 +28674,7 @@
         <v>46010.34185185185</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28736,7 +28736,7 @@
         <v>45429</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28793,7 +28793,7 @@
         <v>44916.35059027778</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28850,7 +28850,7 @@
         <v>44832</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28907,7 +28907,7 @@
         <v>44588</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28964,7 +28964,7 @@
         <v>44382</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -29021,7 +29021,7 @@
         <v>45387.47462962963</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -29078,7 +29078,7 @@
         <v>44804</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -29135,7 +29135,7 @@
         <v>44918</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -29192,7 +29192,7 @@
         <v>45107</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -29254,7 +29254,7 @@
         <v>44729.76435185185</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -29316,7 +29316,7 @@
         <v>45363.84224537037</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -29378,7 +29378,7 @@
         <v>45737.56878472222</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29435,7 +29435,7 @@
         <v>45664</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29497,7 +29497,7 @@
         <v>45093</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29554,7 +29554,7 @@
         <v>44966</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29611,7 +29611,7 @@
         <v>45587.76261574074</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29668,7 +29668,7 @@
         <v>44452</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29725,7 +29725,7 @@
         <v>45103</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29782,7 +29782,7 @@
         <v>45103</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29839,7 +29839,7 @@
         <v>44956.65453703704</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29896,7 +29896,7 @@
         <v>45429</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29953,7 +29953,7 @@
         <v>44938.45799768518</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -30010,7 +30010,7 @@
         <v>44851</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -30067,7 +30067,7 @@
         <v>45069.42476851852</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -30124,7 +30124,7 @@
         <v>44606</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -30186,7 +30186,7 @@
         <v>45611.67729166667</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -30243,7 +30243,7 @@
         <v>45545.79994212963</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -30300,7 +30300,7 @@
         <v>44998.81229166667</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -30357,7 +30357,7 @@
         <v>44426</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30414,7 +30414,7 @@
         <v>44915</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30471,7 +30471,7 @@
         <v>44966</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30528,7 +30528,7 @@
         <v>44865</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30590,7 +30590,7 @@
         <v>44362</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30652,7 +30652,7 @@
         <v>44592</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30709,7 +30709,7 @@
         <v>45464.44983796297</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30766,7 +30766,7 @@
         <v>45531.34680555556</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30823,7 +30823,7 @@
         <v>44522</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30885,7 +30885,7 @@
         <v>45266</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30942,7 +30942,7 @@
         <v>45266</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30999,7 +30999,7 @@
         <v>44499</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -31056,7 +31056,7 @@
         <v>44536</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -31113,7 +31113,7 @@
         <v>45713</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -31175,7 +31175,7 @@
         <v>44617</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -31232,7 +31232,7 @@
         <v>44482.55453703704</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -31289,7 +31289,7 @@
         <v>44739.4487037037</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -31346,7 +31346,7 @@
         <v>44964</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31403,7 +31403,7 @@
         <v>44930</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31460,7 +31460,7 @@
         <v>44889</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31517,7 +31517,7 @@
         <v>45608</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31579,7 +31579,7 @@
         <v>44698</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31641,7 +31641,7 @@
         <v>45715</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31698,7 +31698,7 @@
         <v>45387.63100694444</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31760,7 +31760,7 @@
         <v>45680</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31817,7 +31817,7 @@
         <v>44852.260625</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31874,7 +31874,7 @@
         <v>44729.38819444444</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31931,7 +31931,7 @@
         <v>44392.5977662037</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31993,7 +31993,7 @@
         <v>44741.72256944444</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -32050,7 +32050,7 @@
         <v>45267.63392361111</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -32107,7 +32107,7 @@
         <v>45267.64305555556</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -32164,7 +32164,7 @@
         <v>45680</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -32221,7 +32221,7 @@
         <v>45655.7484375</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -32283,7 +32283,7 @@
         <v>45329</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -32345,7 +32345,7 @@
         <v>45190</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -32402,7 +32402,7 @@
         <v>45183</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32464,7 +32464,7 @@
         <v>44851</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32521,7 +32521,7 @@
         <v>45723.62978009259</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32578,7 +32578,7 @@
         <v>45363.94168981481</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32640,7 +32640,7 @@
         <v>45622.68819444445</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -32697,7 +32697,7 @@
         <v>44515.65760416666</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32754,7 +32754,7 @@
         <v>44664</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32811,7 +32811,7 @@
         <v>45734</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32868,7 +32868,7 @@
         <v>44789</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32925,7 +32925,7 @@
         <v>45229</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32982,7 +32982,7 @@
         <v>45229</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -33044,7 +33044,7 @@
         <v>45303.4247337963</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -33101,7 +33101,7 @@
         <v>44917</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -33158,7 +33158,7 @@
         <v>44903</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -33215,7 +33215,7 @@
         <v>44903</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -33272,7 +33272,7 @@
         <v>44473</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -33329,7 +33329,7 @@
         <v>45737</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -33386,7 +33386,7 @@
         <v>44886</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -33443,7 +33443,7 @@
         <v>44355</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -33500,7 +33500,7 @@
         <v>44571.58237268519</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33557,7 +33557,7 @@
         <v>45303</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33614,7 +33614,7 @@
         <v>45303.43546296296</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -33671,7 +33671,7 @@
         <v>45303.44876157407</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33728,7 +33728,7 @@
         <v>45763</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33785,7 +33785,7 @@
         <v>44739.45480324074</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33842,7 +33842,7 @@
         <v>44298</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33899,7 +33899,7 @@
         <v>45167.35505787037</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33956,7 +33956,7 @@
         <v>44638</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -34013,7 +34013,7 @@
         <v>45210.35028935185</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -34070,7 +34070,7 @@
         <v>45307</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -34132,7 +34132,7 @@
         <v>44525.90324074074</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -34189,7 +34189,7 @@
         <v>44497</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -34246,7 +34246,7 @@
         <v>44251</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -34303,7 +34303,7 @@
         <v>45182</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -34365,7 +34365,7 @@
         <v>44749</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -34422,7 +34422,7 @@
         <v>44946</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -34479,7 +34479,7 @@
         <v>45159</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34541,7 +34541,7 @@
         <v>44746.35266203704</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34598,7 +34598,7 @@
         <v>45056</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -34660,7 +34660,7 @@
         <v>45071</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34722,7 +34722,7 @@
         <v>45183</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34784,7 +34784,7 @@
         <v>45615.87693287037</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34841,7 +34841,7 @@
         <v>45776</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34898,7 +34898,7 @@
         <v>45674</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34955,7 +34955,7 @@
         <v>45642.89609953704</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -35017,7 +35017,7 @@
         <v>45737.54170138889</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -35074,7 +35074,7 @@
         <v>45365.59789351852</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -35131,7 +35131,7 @@
         <v>44953.79731481482</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -35193,7 +35193,7 @@
         <v>45642</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -35255,7 +35255,7 @@
         <v>44593</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -35312,7 +35312,7 @@
         <v>45049</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -35369,7 +35369,7 @@
         <v>45792.379375</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -35426,7 +35426,7 @@
         <v>45791.85936342592</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -35483,7 +35483,7 @@
         <v>45792.35003472222</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>

--- a/Översikt ESKILSTUNA.xlsx
+++ b/Översikt ESKILSTUNA.xlsx
@@ -575,7 +575,7 @@
         <v>45217</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -677,7 +677,7 @@
         <v>45946</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -782,7 +782,7 @@
         <v>44426</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -885,7 +885,7 @@
         <v>44503.65498842593</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -983,7 +983,7 @@
         <v>45763</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1079,7 +1079,7 @@
         <v>45904.57581018518</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1175,7 +1175,7 @@
         <v>44470</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1270,7 +1270,7 @@
         <v>45034</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1367,7 +1367,7 @@
         <v>44581</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1460,7 +1460,7 @@
         <v>44953</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1561,7 +1561,7 @@
         <v>44237</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1658,7 +1658,7 @@
         <v>45063</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1746,7 +1746,7 @@
         <v>44789</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1838,7 +1838,7 @@
         <v>44657</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1934,7 +1934,7 @@
         <v>44916</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2021,7 +2021,7 @@
         <v>45805.49724537037</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2113,7 +2113,7 @@
         <v>45810.55597222222</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2205,7 +2205,7 @@
         <v>44953</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2305,7 +2305,7 @@
         <v>45379.46256944445</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2397,7 +2397,7 @@
         <v>45881.67006944444</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2488,7 +2488,7 @@
         <v>45715</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2575,7 +2575,7 @@
         <v>45044</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2662,7 +2662,7 @@
         <v>45194</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2757,7 +2757,7 @@
         <v>45763</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2848,7 +2848,7 @@
         <v>44284</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2948,7 +2948,7 @@
         <v>45763</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3039,7 +3039,7 @@
         <v>45686</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3126,7 +3126,7 @@
         <v>44530</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3212,7 +3212,7 @@
         <v>45798.44185185185</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3303,7 +3303,7 @@
         <v>45798.44422453704</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3394,7 +3394,7 @@
         <v>45566</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3484,7 +3484,7 @@
         <v>45897.55863425926</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3579,7 +3579,7 @@
         <v>44930</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3674,7 +3674,7 @@
         <v>46001.82864583333</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3764,7 +3764,7 @@
         <v>45655.74069444444</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3855,7 +3855,7 @@
         <v>45603</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3941,7 +3941,7 @@
         <v>44803</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4026,7 +4026,7 @@
         <v>44582</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4116,7 +4116,7 @@
         <v>44502</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4206,7 +4206,7 @@
         <v>44515</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4296,7 +4296,7 @@
         <v>45077</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4381,7 +4381,7 @@
         <v>45603</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4466,7 +4466,7 @@
         <v>44840</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4555,7 +4555,7 @@
         <v>44918</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4640,7 +4640,7 @@
         <v>45685</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4730,7 +4730,7 @@
         <v>45691</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4824,7 +4824,7 @@
         <v>44368</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4914,7 +4914,7 @@
         <v>45849</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5008,7 +5008,7 @@
         <v>45926</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5097,7 +5097,7 @@
         <v>45946.66234953704</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5182,7 +5182,7 @@
         <v>45946.65936342593</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5267,7 +5267,7 @@
         <v>45849.77498842592</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5361,7 +5361,7 @@
         <v>45957.47642361111</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5446,7 +5446,7 @@
         <v>45012</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5536,7 +5536,7 @@
         <v>44904.35087962963</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5621,7 +5621,7 @@
         <v>44984.37708333333</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5710,7 +5710,7 @@
         <v>46009.61564814814</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5799,7 +5799,7 @@
         <v>45107.03777777778</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5893,7 +5893,7 @@
         <v>44452</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5978,7 +5978,7 @@
         <v>44854</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6067,7 +6067,7 @@
         <v>44834</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6156,7 +6156,7 @@
         <v>45385.54006944445</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6246,7 +6246,7 @@
         <v>45103</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6331,7 +6331,7 @@
         <v>45120</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6421,7 +6421,7 @@
         <v>44295</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6483,7 +6483,7 @@
         <v>44410</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6540,7 +6540,7 @@
         <v>44245</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6597,7 +6597,7 @@
         <v>44329</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6654,7 +6654,7 @@
         <v>44432</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6711,7 +6711,7 @@
         <v>44797</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6768,7 +6768,7 @@
         <v>44473</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6825,7 +6825,7 @@
         <v>44262</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6882,7 +6882,7 @@
         <v>44712</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6939,7 +6939,7 @@
         <v>44490</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6996,7 +6996,7 @@
         <v>44470</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7053,7 +7053,7 @@
         <v>44245</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7115,7 +7115,7 @@
         <v>44608</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7172,7 +7172,7 @@
         <v>44517.77648148148</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7229,7 +7229,7 @@
         <v>44517.78018518518</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7286,7 +7286,7 @@
         <v>44245.82162037037</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7348,7 +7348,7 @@
         <v>44245</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7410,7 +7410,7 @@
         <v>44513.88376157408</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7467,7 +7467,7 @@
         <v>44781</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7524,7 +7524,7 @@
         <v>44588</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7586,7 +7586,7 @@
         <v>44671</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7643,7 +7643,7 @@
         <v>44763</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7700,7 +7700,7 @@
         <v>44403</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7757,7 +7757,7 @@
         <v>44432</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7814,7 +7814,7 @@
         <v>44432</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7871,7 +7871,7 @@
         <v>44533</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7928,7 +7928,7 @@
         <v>44470</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7985,7 +7985,7 @@
         <v>44516</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -8042,7 +8042,7 @@
         <v>44754.58148148148</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8104,7 +8104,7 @@
         <v>44746</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -8161,7 +8161,7 @@
         <v>44683</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8223,7 +8223,7 @@
         <v>44453</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8280,7 +8280,7 @@
         <v>44712</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8337,7 +8337,7 @@
         <v>44799</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8394,7 +8394,7 @@
         <v>44628</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8451,7 +8451,7 @@
         <v>44683</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8508,7 +8508,7 @@
         <v>44405</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8565,7 +8565,7 @@
         <v>44746</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8622,7 +8622,7 @@
         <v>44746</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8679,7 +8679,7 @@
         <v>44449</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8741,7 +8741,7 @@
         <v>44239</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8803,7 +8803,7 @@
         <v>44533.47033564815</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8860,7 +8860,7 @@
         <v>44524</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8917,7 +8917,7 @@
         <v>44689</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8974,7 +8974,7 @@
         <v>44746</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -9036,7 +9036,7 @@
         <v>44349</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -9093,7 +9093,7 @@
         <v>44350</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -9150,7 +9150,7 @@
         <v>44468</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9207,7 +9207,7 @@
         <v>44245</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9269,7 +9269,7 @@
         <v>44533</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9326,7 +9326,7 @@
         <v>44784</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9383,7 +9383,7 @@
         <v>44280</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9440,7 +9440,7 @@
         <v>44449</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9502,7 +9502,7 @@
         <v>44648</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9559,7 +9559,7 @@
         <v>44544</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9616,7 +9616,7 @@
         <v>44588.58922453703</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9673,7 +9673,7 @@
         <v>44628</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9730,7 +9730,7 @@
         <v>44536</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9787,7 +9787,7 @@
         <v>44536</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9844,7 +9844,7 @@
         <v>44328</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9901,7 +9901,7 @@
         <v>44781</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9958,7 +9958,7 @@
         <v>44804</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -10015,7 +10015,7 @@
         <v>44734</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -10072,7 +10072,7 @@
         <v>44588</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -10129,7 +10129,7 @@
         <v>44461</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10186,7 +10186,7 @@
         <v>44238</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10248,7 +10248,7 @@
         <v>44578.55539351852</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10305,7 +10305,7 @@
         <v>44308</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10362,7 +10362,7 @@
         <v>44284</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10419,7 +10419,7 @@
         <v>44379</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10476,7 +10476,7 @@
         <v>44362</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10533,7 +10533,7 @@
         <v>44336</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10590,7 +10590,7 @@
         <v>44699</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10652,7 +10652,7 @@
         <v>44515</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10714,7 +10714,7 @@
         <v>44550</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10771,7 +10771,7 @@
         <v>44482.55003472222</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10828,7 +10828,7 @@
         <v>44722.55524305555</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10890,7 +10890,7 @@
         <v>44789</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10947,7 +10947,7 @@
         <v>44804</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -11004,7 +11004,7 @@
         <v>44490</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -11061,7 +11061,7 @@
         <v>44573</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -11118,7 +11118,7 @@
         <v>44499</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11175,7 +11175,7 @@
         <v>44844</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11232,7 +11232,7 @@
         <v>44783</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11289,7 +11289,7 @@
         <v>44654</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11346,7 +11346,7 @@
         <v>44449</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11408,7 +11408,7 @@
         <v>44432</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11465,7 +11465,7 @@
         <v>44490</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11522,7 +11522,7 @@
         <v>44435</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11579,7 +11579,7 @@
         <v>44616</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11636,7 +11636,7 @@
         <v>44578.55100694444</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11693,7 +11693,7 @@
         <v>44426</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11750,7 +11750,7 @@
         <v>44426</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11807,7 +11807,7 @@
         <v>44510</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11864,7 +11864,7 @@
         <v>44643</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11921,7 +11921,7 @@
         <v>44781</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11978,7 +11978,7 @@
         <v>44636</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -12035,7 +12035,7 @@
         <v>44782</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -12092,7 +12092,7 @@
         <v>44865</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -12154,7 +12154,7 @@
         <v>44533</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12211,7 +12211,7 @@
         <v>44748.47054398148</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12268,7 +12268,7 @@
         <v>44454</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12325,7 +12325,7 @@
         <v>44251</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12382,7 +12382,7 @@
         <v>44658</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12444,7 +12444,7 @@
         <v>44804</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12501,7 +12501,7 @@
         <v>45365.44949074074</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12558,7 +12558,7 @@
         <v>44903</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12615,7 +12615,7 @@
         <v>45005</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12672,7 +12672,7 @@
         <v>45099</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12729,7 +12729,7 @@
         <v>44755</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12786,7 +12786,7 @@
         <v>44664</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12848,7 +12848,7 @@
         <v>45734</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12905,7 +12905,7 @@
         <v>44886</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12962,7 +12962,7 @@
         <v>44946</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -13019,7 +13019,7 @@
         <v>45005</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -13076,7 +13076,7 @@
         <v>45307</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -13138,7 +13138,7 @@
         <v>45266.61707175926</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13195,7 +13195,7 @@
         <v>44937.42351851852</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13252,7 +13252,7 @@
         <v>44888.63946759259</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13309,7 +13309,7 @@
         <v>45012.32734953704</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13371,7 +13371,7 @@
         <v>45544</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13428,7 +13428,7 @@
         <v>45020</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13485,7 +13485,7 @@
         <v>44516</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13542,7 +13542,7 @@
         <v>45341</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13599,7 +13599,7 @@
         <v>45622.6533912037</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13656,7 +13656,7 @@
         <v>45407</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13713,7 +13713,7 @@
         <v>45240.35564814815</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13770,7 +13770,7 @@
         <v>44434</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13827,7 +13827,7 @@
         <v>45608.69983796297</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13889,7 +13889,7 @@
         <v>45211.53525462963</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13946,7 +13946,7 @@
         <v>44768</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -14008,7 +14008,7 @@
         <v>44819</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -14065,7 +14065,7 @@
         <v>45514</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -14122,7 +14122,7 @@
         <v>45301</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14179,7 +14179,7 @@
         <v>44874</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14236,7 +14236,7 @@
         <v>44942</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14293,7 +14293,7 @@
         <v>44634.64108796296</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14350,7 +14350,7 @@
         <v>45007.62168981481</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14407,7 +14407,7 @@
         <v>44701</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14464,7 +14464,7 @@
         <v>44525.9009375</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14521,7 +14521,7 @@
         <v>44525.9021875</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14578,7 +14578,7 @@
         <v>44729</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14640,7 +14640,7 @@
         <v>44582</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14697,7 +14697,7 @@
         <v>45680</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14754,7 +14754,7 @@
         <v>44889</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14811,7 +14811,7 @@
         <v>45798.63770833334</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14868,7 +14868,7 @@
         <v>45798.64900462963</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14925,7 +14925,7 @@
         <v>44886</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14982,7 +14982,7 @@
         <v>45798.67103009259</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -15039,7 +15039,7 @@
         <v>45670</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -15096,7 +15096,7 @@
         <v>45163</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15153,7 +15153,7 @@
         <v>45798.64447916667</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15210,7 +15210,7 @@
         <v>45798.64721064815</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15267,7 +15267,7 @@
         <v>45798.66695601852</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15324,7 +15324,7 @@
         <v>45798.43306712963</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15386,7 +15386,7 @@
         <v>45798.43482638889</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15448,7 +15448,7 @@
         <v>45798</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15510,7 +15510,7 @@
         <v>44804</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15567,7 +15567,7 @@
         <v>45568.90701388889</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15629,7 +15629,7 @@
         <v>45568.90762731482</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15691,7 +15691,7 @@
         <v>44483</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15753,7 +15753,7 @@
         <v>44844</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15810,7 +15810,7 @@
         <v>44844</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15867,7 +15867,7 @@
         <v>44883</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15924,7 +15924,7 @@
         <v>45798.43913194445</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15986,7 +15986,7 @@
         <v>45660.61137731482</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -16048,7 +16048,7 @@
         <v>45708.5396412037</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -16105,7 +16105,7 @@
         <v>45266</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16162,7 +16162,7 @@
         <v>45544</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16219,7 +16219,7 @@
         <v>44626</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16276,7 +16276,7 @@
         <v>45365.44756944444</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16333,7 +16333,7 @@
         <v>45041</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16390,7 +16390,7 @@
         <v>44889</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16447,7 +16447,7 @@
         <v>45006</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16504,7 +16504,7 @@
         <v>45889.86215277778</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16566,7 +16566,7 @@
         <v>45889.87027777778</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16628,7 +16628,7 @@
         <v>44886</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16685,7 +16685,7 @@
         <v>45894.50094907408</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16742,7 +16742,7 @@
         <v>45414.60868055555</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16804,7 +16804,7 @@
         <v>45680</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16861,7 +16861,7 @@
         <v>45897.47975694444</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16923,7 +16923,7 @@
         <v>45897.64649305555</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16980,7 +16980,7 @@
         <v>44536.35326388889</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -17042,7 +17042,7 @@
         <v>44889</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -17099,7 +17099,7 @@
         <v>45897.41643518519</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17161,7 +17161,7 @@
         <v>45897</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17223,7 +17223,7 @@
         <v>45429</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17280,7 +17280,7 @@
         <v>45901.65155092593</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17337,7 +17337,7 @@
         <v>45898.5619212963</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17394,7 +17394,7 @@
         <v>45898.54829861111</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17451,7 +17451,7 @@
         <v>45685</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17508,7 +17508,7 @@
         <v>45568.40231481481</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17565,7 +17565,7 @@
         <v>45817.76539351852</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17622,7 +17622,7 @@
         <v>45217</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17679,7 +17679,7 @@
         <v>44537</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17736,7 +17736,7 @@
         <v>45560</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17793,7 +17793,7 @@
         <v>44544</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17850,7 +17850,7 @@
         <v>44516</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17907,7 +17907,7 @@
         <v>45695</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17964,7 +17964,7 @@
         <v>45695</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -18021,7 +18021,7 @@
         <v>45245</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -18083,7 +18083,7 @@
         <v>45905.58692129629</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18140,7 +18140,7 @@
         <v>44915</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18197,7 +18197,7 @@
         <v>44983</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18254,7 +18254,7 @@
         <v>45826.66998842593</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18311,7 +18311,7 @@
         <v>45826.67109953704</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18368,7 +18368,7 @@
         <v>45905</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18425,7 +18425,7 @@
         <v>45910</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18482,7 +18482,7 @@
         <v>45826.52690972222</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18539,7 +18539,7 @@
         <v>45826.72251157407</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18596,7 +18596,7 @@
         <v>45695</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18653,7 +18653,7 @@
         <v>45637.43685185185</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18710,7 +18710,7 @@
         <v>45245</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18772,7 +18772,7 @@
         <v>45006</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18829,7 +18829,7 @@
         <v>45826.71982638889</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18886,7 +18886,7 @@
         <v>45062.34902777777</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18943,7 +18943,7 @@
         <v>44735.28875</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -19000,7 +19000,7 @@
         <v>45334.70190972222</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -19057,7 +19057,7 @@
         <v>45271</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19114,7 +19114,7 @@
         <v>45831.47563657408</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19171,7 +19171,7 @@
         <v>45918.45792824074</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19228,7 +19228,7 @@
         <v>44930</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19285,7 +19285,7 @@
         <v>44858.57895833333</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19342,7 +19342,7 @@
         <v>45667</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19399,7 +19399,7 @@
         <v>45923</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19456,7 +19456,7 @@
         <v>45079</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19513,7 +19513,7 @@
         <v>45923</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19570,7 +19570,7 @@
         <v>45833.39927083333</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19627,7 +19627,7 @@
         <v>45832.56721064815</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19689,7 +19689,7 @@
         <v>45049.40128472223</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19746,7 +19746,7 @@
         <v>44432</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19803,7 +19803,7 @@
         <v>45464.45482638889</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19860,7 +19860,7 @@
         <v>45036</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19917,7 +19917,7 @@
         <v>45926</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19974,7 +19974,7 @@
         <v>45926</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -20031,7 +20031,7 @@
         <v>45685</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20088,7 +20088,7 @@
         <v>45685</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20145,7 +20145,7 @@
         <v>45237.71393518519</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20202,7 +20202,7 @@
         <v>45670</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20264,7 +20264,7 @@
         <v>45926</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20321,7 +20321,7 @@
         <v>44495</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20378,7 +20378,7 @@
         <v>45931</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20435,7 +20435,7 @@
         <v>45931.67982638889</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20492,7 +20492,7 @@
         <v>45093</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20549,7 +20549,7 @@
         <v>44881</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20606,7 +20606,7 @@
         <v>45715</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20663,7 +20663,7 @@
         <v>44799</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20720,7 +20720,7 @@
         <v>45093</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20777,7 +20777,7 @@
         <v>45582.95277777778</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20834,7 +20834,7 @@
         <v>44616.71168981482</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20891,7 +20891,7 @@
         <v>44979</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20948,7 +20948,7 @@
         <v>45103</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -21005,7 +21005,7 @@
         <v>45917</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21062,7 +21062,7 @@
         <v>45694.4634375</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21119,7 +21119,7 @@
         <v>45945.38439814815</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21176,7 +21176,7 @@
         <v>45846</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21238,7 +21238,7 @@
         <v>45846.44305555556</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21300,7 +21300,7 @@
         <v>45846.44430555555</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21362,7 +21362,7 @@
         <v>44490</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21419,7 +21419,7 @@
         <v>45946.71481481481</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21476,7 +21476,7 @@
         <v>45946.71799768518</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21533,7 +21533,7 @@
         <v>45849.79363425926</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21590,7 +21590,7 @@
         <v>45849.80846064815</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21647,7 +21647,7 @@
         <v>44634</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21704,7 +21704,7 @@
         <v>44955</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21761,7 +21761,7 @@
         <v>45950.41737268519</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21818,7 +21818,7 @@
         <v>45953.66923611111</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21875,7 +21875,7 @@
         <v>45953.34796296297</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21932,7 +21932,7 @@
         <v>45953.44787037037</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21989,7 +21989,7 @@
         <v>45953.44184027778</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -22046,7 +22046,7 @@
         <v>45953.44493055555</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22103,7 +22103,7 @@
         <v>45953</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22160,7 +22160,7 @@
         <v>45953.45186342593</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22217,7 +22217,7 @@
         <v>45953.4840625</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22274,7 +22274,7 @@
         <v>44946</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22331,7 +22331,7 @@
         <v>45867</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22388,7 +22388,7 @@
         <v>45604.59530092592</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22445,7 +22445,7 @@
         <v>45869.28329861111</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22502,7 +22502,7 @@
         <v>45954.70034722222</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22559,7 +22559,7 @@
         <v>45954.69859953703</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22616,7 +22616,7 @@
         <v>45954.72381944444</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22673,7 +22673,7 @@
         <v>44873</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22730,7 +22730,7 @@
         <v>44928</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22787,7 +22787,7 @@
         <v>44946</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22844,7 +22844,7 @@
         <v>45460</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22901,7 +22901,7 @@
         <v>45875</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22958,7 +22958,7 @@
         <v>45198</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -23015,7 +23015,7 @@
         <v>45537.57546296297</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23072,7 +23072,7 @@
         <v>45341.55400462963</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23129,7 +23129,7 @@
         <v>45103</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23191,7 +23191,7 @@
         <v>45496.61991898148</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23248,7 +23248,7 @@
         <v>45670</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23305,7 +23305,7 @@
         <v>44953</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23367,7 +23367,7 @@
         <v>45225.6690625</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23424,7 +23424,7 @@
         <v>45670.77166666667</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23481,7 +23481,7 @@
         <v>45737</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23538,7 +23538,7 @@
         <v>44965</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23595,7 +23595,7 @@
         <v>45966.52162037037</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23652,7 +23652,7 @@
         <v>45966.69065972222</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23709,7 +23709,7 @@
         <v>45966.70978009259</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23766,7 +23766,7 @@
         <v>45966.49600694444</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23823,7 +23823,7 @@
         <v>45967.67565972222</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23880,7 +23880,7 @@
         <v>44839</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23937,7 +23937,7 @@
         <v>44965</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23999,7 +23999,7 @@
         <v>44861</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24061,7 +24061,7 @@
         <v>44998</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24123,7 +24123,7 @@
         <v>44998</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24185,7 +24185,7 @@
         <v>45058</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24242,7 +24242,7 @@
         <v>45974.71255787037</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24299,7 +24299,7 @@
         <v>45885</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24356,7 +24356,7 @@
         <v>45170</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24413,7 +24413,7 @@
         <v>45974.72075231482</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24470,7 +24470,7 @@
         <v>45974.71702546296</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24527,7 +24527,7 @@
         <v>45974.7244212963</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24584,7 +24584,7 @@
         <v>44490</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24641,7 +24641,7 @@
         <v>44904</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24703,7 +24703,7 @@
         <v>44499</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24760,7 +24760,7 @@
         <v>45965</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24817,7 +24817,7 @@
         <v>45977.81913194444</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24874,7 +24874,7 @@
         <v>45407</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24931,7 +24931,7 @@
         <v>45979.47262731481</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24988,7 +24988,7 @@
         <v>44469</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -25045,7 +25045,7 @@
         <v>45979.47452546296</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25102,7 +25102,7 @@
         <v>45979.47876157407</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25159,7 +25159,7 @@
         <v>44626</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25216,7 +25216,7 @@
         <v>45119</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25278,7 +25278,7 @@
         <v>44803.35975694445</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25335,7 +25335,7 @@
         <v>44803.37219907407</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25392,7 +25392,7 @@
         <v>44426</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25449,7 +25449,7 @@
         <v>45229</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25511,7 +25511,7 @@
         <v>45303.44210648148</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25568,7 +25568,7 @@
         <v>45303.44663194445</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25625,7 +25625,7 @@
         <v>45209</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25682,7 +25682,7 @@
         <v>45973</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25744,7 +25744,7 @@
         <v>45209.4671875</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25801,7 +25801,7 @@
         <v>45004</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25858,7 +25858,7 @@
         <v>45750.48094907407</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25915,7 +25915,7 @@
         <v>45604.63023148148</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25972,7 +25972,7 @@
         <v>45992.63881944444</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -26029,7 +26029,7 @@
         <v>45992.65880787037</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26086,7 +26086,7 @@
         <v>45146</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26148,7 +26148,7 @@
         <v>45992.60670138889</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26205,7 +26205,7 @@
         <v>45992.619375</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26262,7 +26262,7 @@
         <v>45992.61385416667</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26319,7 +26319,7 @@
         <v>44467</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26376,7 +26376,7 @@
         <v>45992.64505787037</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26433,7 +26433,7 @@
         <v>45994.75143518519</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26490,7 +26490,7 @@
         <v>45166.54261574074</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26547,7 +26547,7 @@
         <v>45603</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26604,7 +26604,7 @@
         <v>45994.74487268519</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26661,7 +26661,7 @@
         <v>45077.52649305556</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26718,7 +26718,7 @@
         <v>45999.56599537037</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26775,7 +26775,7 @@
         <v>45999</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26837,7 +26837,7 @@
         <v>45303</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26894,7 +26894,7 @@
         <v>45061</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26956,7 +26956,7 @@
         <v>45999.38288194445</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -27013,7 +27013,7 @@
         <v>45756</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -27075,7 +27075,7 @@
         <v>45999.63010416667</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27157,7 +27157,7 @@
         <v>44732</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27214,7 +27214,7 @@
         <v>46001.33653935185</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27271,7 +27271,7 @@
         <v>46043.42224537037</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27328,7 +27328,7 @@
         <v>46000.44707175926</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27390,7 +27390,7 @@
         <v>45643.73109953704</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27447,7 +27447,7 @@
         <v>46043.41954861111</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27504,7 +27504,7 @@
         <v>46001</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27566,7 +27566,7 @@
         <v>45999.90451388889</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27628,7 +27628,7 @@
         <v>46000.38015046297</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27690,7 +27690,7 @@
         <v>45672</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27747,7 +27747,7 @@
         <v>44837</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27809,7 +27809,7 @@
         <v>45518.66082175926</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27871,7 +27871,7 @@
         <v>45655.72868055556</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27933,7 +27933,7 @@
         <v>44917</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27990,7 +27990,7 @@
         <v>45950</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -28047,7 +28047,7 @@
         <v>44886</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -28104,7 +28104,7 @@
         <v>44671</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28161,7 +28161,7 @@
         <v>44284</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28218,7 +28218,7 @@
         <v>44285</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28275,7 +28275,7 @@
         <v>45435</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28332,7 +28332,7 @@
         <v>46048</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28389,7 +28389,7 @@
         <v>44468</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28446,7 +28446,7 @@
         <v>44942</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28503,7 +28503,7 @@
         <v>44572.44108796296</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28560,7 +28560,7 @@
         <v>44797.38288194445</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28617,7 +28617,7 @@
         <v>45965</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28674,7 +28674,7 @@
         <v>46010.34185185185</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28736,7 +28736,7 @@
         <v>45429</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28793,7 +28793,7 @@
         <v>44916.35059027778</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28850,7 +28850,7 @@
         <v>44832</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28907,7 +28907,7 @@
         <v>44588</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28964,7 +28964,7 @@
         <v>44382</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -29021,7 +29021,7 @@
         <v>45387.47462962963</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -29078,7 +29078,7 @@
         <v>44804</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -29135,7 +29135,7 @@
         <v>44918</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -29192,7 +29192,7 @@
         <v>45107</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -29254,7 +29254,7 @@
         <v>44729.76435185185</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -29316,7 +29316,7 @@
         <v>45363.84224537037</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -29378,7 +29378,7 @@
         <v>45737.56878472222</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29435,7 +29435,7 @@
         <v>45664</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29497,7 +29497,7 @@
         <v>45093</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29554,7 +29554,7 @@
         <v>44966</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29611,7 +29611,7 @@
         <v>45587.76261574074</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29668,7 +29668,7 @@
         <v>44452</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29725,7 +29725,7 @@
         <v>45103</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29782,7 +29782,7 @@
         <v>45103</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29839,7 +29839,7 @@
         <v>44956.65453703704</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29896,7 +29896,7 @@
         <v>45429</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29953,7 +29953,7 @@
         <v>44938.45799768518</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -30010,7 +30010,7 @@
         <v>44851</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -30067,7 +30067,7 @@
         <v>45069.42476851852</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -30124,7 +30124,7 @@
         <v>44606</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -30186,7 +30186,7 @@
         <v>45611.67729166667</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -30243,7 +30243,7 @@
         <v>45545.79994212963</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -30300,7 +30300,7 @@
         <v>44998.81229166667</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -30357,7 +30357,7 @@
         <v>44426</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30414,7 +30414,7 @@
         <v>44915</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30471,7 +30471,7 @@
         <v>44966</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30528,7 +30528,7 @@
         <v>44865</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30590,7 +30590,7 @@
         <v>44362</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30652,7 +30652,7 @@
         <v>44592</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30709,7 +30709,7 @@
         <v>45464.44983796297</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30766,7 +30766,7 @@
         <v>45531.34680555556</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30823,7 +30823,7 @@
         <v>44522</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30885,7 +30885,7 @@
         <v>45266</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30942,7 +30942,7 @@
         <v>45266</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30999,7 +30999,7 @@
         <v>44499</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -31056,7 +31056,7 @@
         <v>44536</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -31113,7 +31113,7 @@
         <v>45713</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -31175,7 +31175,7 @@
         <v>44617</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -31232,7 +31232,7 @@
         <v>44482.55453703704</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -31289,7 +31289,7 @@
         <v>44739.4487037037</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -31346,7 +31346,7 @@
         <v>44964</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31403,7 +31403,7 @@
         <v>44930</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31460,7 +31460,7 @@
         <v>44889</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31517,7 +31517,7 @@
         <v>45608</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31579,7 +31579,7 @@
         <v>44698</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31641,7 +31641,7 @@
         <v>45715</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31698,7 +31698,7 @@
         <v>45387.63100694444</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31760,7 +31760,7 @@
         <v>45680</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31817,7 +31817,7 @@
         <v>44852.260625</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31874,7 +31874,7 @@
         <v>44729.38819444444</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31931,7 +31931,7 @@
         <v>44392.5977662037</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31993,7 +31993,7 @@
         <v>44741.72256944444</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -32050,7 +32050,7 @@
         <v>45267.63392361111</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -32107,7 +32107,7 @@
         <v>45267.64305555556</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -32164,7 +32164,7 @@
         <v>45680</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -32221,7 +32221,7 @@
         <v>45655.7484375</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -32283,7 +32283,7 @@
         <v>45329</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -32345,7 +32345,7 @@
         <v>45190</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -32402,7 +32402,7 @@
         <v>45183</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32464,7 +32464,7 @@
         <v>44851</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32521,7 +32521,7 @@
         <v>45723.62978009259</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32578,7 +32578,7 @@
         <v>45363.94168981481</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32640,7 +32640,7 @@
         <v>45622.68819444445</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -32697,7 +32697,7 @@
         <v>44515.65760416666</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32754,7 +32754,7 @@
         <v>44664</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32811,7 +32811,7 @@
         <v>45734</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32868,7 +32868,7 @@
         <v>44789</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32925,7 +32925,7 @@
         <v>45229</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32982,7 +32982,7 @@
         <v>45229</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -33044,7 +33044,7 @@
         <v>45303.4247337963</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -33101,7 +33101,7 @@
         <v>44917</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -33158,7 +33158,7 @@
         <v>44903</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -33215,7 +33215,7 @@
         <v>44903</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -33272,7 +33272,7 @@
         <v>44473</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -33329,7 +33329,7 @@
         <v>45737</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -33386,7 +33386,7 @@
         <v>44886</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -33443,7 +33443,7 @@
         <v>44355</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -33500,7 +33500,7 @@
         <v>44571.58237268519</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33557,7 +33557,7 @@
         <v>45303</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33614,7 +33614,7 @@
         <v>45303.43546296296</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -33671,7 +33671,7 @@
         <v>45303.44876157407</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33728,7 +33728,7 @@
         <v>45763</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33785,7 +33785,7 @@
         <v>44739.45480324074</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33842,7 +33842,7 @@
         <v>44298</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33899,7 +33899,7 @@
         <v>45167.35505787037</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33956,7 +33956,7 @@
         <v>44638</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -34013,7 +34013,7 @@
         <v>45210.35028935185</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -34070,7 +34070,7 @@
         <v>45307</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -34132,7 +34132,7 @@
         <v>44525.90324074074</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -34189,7 +34189,7 @@
         <v>44497</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -34246,7 +34246,7 @@
         <v>44251</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -34303,7 +34303,7 @@
         <v>45182</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -34365,7 +34365,7 @@
         <v>44749</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -34422,7 +34422,7 @@
         <v>44946</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -34479,7 +34479,7 @@
         <v>45159</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34541,7 +34541,7 @@
         <v>44746.35266203704</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34598,7 +34598,7 @@
         <v>45056</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -34660,7 +34660,7 @@
         <v>45071</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34722,7 +34722,7 @@
         <v>45183</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34784,7 +34784,7 @@
         <v>45615.87693287037</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34841,7 +34841,7 @@
         <v>45776</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34898,7 +34898,7 @@
         <v>45674</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34955,7 +34955,7 @@
         <v>45642.89609953704</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -35017,7 +35017,7 @@
         <v>45737.54170138889</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -35074,7 +35074,7 @@
         <v>45365.59789351852</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -35131,7 +35131,7 @@
         <v>44953.79731481482</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -35193,7 +35193,7 @@
         <v>45642</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
@@ -35255,7 +35255,7 @@
         <v>44593</v>
       </c>
       <c r="C563" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D563" t="inlineStr">
         <is>
@@ -35312,7 +35312,7 @@
         <v>45049</v>
       </c>
       <c r="C564" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D564" t="inlineStr">
         <is>
@@ -35369,7 +35369,7 @@
         <v>45792.379375</v>
       </c>
       <c r="C565" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D565" t="inlineStr">
         <is>
@@ -35426,7 +35426,7 @@
         <v>45791.85936342592</v>
       </c>
       <c r="C566" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D566" t="inlineStr">
         <is>
@@ -35483,7 +35483,7 @@
         <v>45792.35003472222</v>
       </c>
       <c r="C567" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D567" t="inlineStr">
         <is>

--- a/Översikt ESKILSTUNA.xlsx
+++ b/Översikt ESKILSTUNA.xlsx
@@ -575,7 +575,7 @@
         <v>45217</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -677,7 +677,7 @@
         <v>45946</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -782,7 +782,7 @@
         <v>44426</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -885,7 +885,7 @@
         <v>44503.65498842593</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -983,7 +983,7 @@
         <v>45763</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1079,7 +1079,7 @@
         <v>45904.57581018518</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1175,7 +1175,7 @@
         <v>44470</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1270,7 +1270,7 @@
         <v>45034</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1367,7 +1367,7 @@
         <v>44581</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1460,7 +1460,7 @@
         <v>44953</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1561,7 +1561,7 @@
         <v>45063</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1649,7 +1649,7 @@
         <v>44789</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1741,7 +1741,7 @@
         <v>44657</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1837,7 +1837,7 @@
         <v>44916</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1924,7 +1924,7 @@
         <v>44953</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2024,7 +2024,7 @@
         <v>45881.67006944444</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2115,7 +2115,7 @@
         <v>45379.46256944445</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2207,7 +2207,7 @@
         <v>45715</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2294,7 +2294,7 @@
         <v>45044</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2381,7 +2381,7 @@
         <v>45194</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2476,7 +2476,7 @@
         <v>44284</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2576,7 +2576,7 @@
         <v>45763</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2667,7 +2667,7 @@
         <v>45763</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2758,7 +2758,7 @@
         <v>45686</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2845,7 +2845,7 @@
         <v>45805.49724537037</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2937,7 +2937,7 @@
         <v>45810.55597222222</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3029,7 +3029,7 @@
         <v>44530</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3115,7 +3115,7 @@
         <v>45566</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3205,7 +3205,7 @@
         <v>45897.55863425926</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3300,7 +3300,7 @@
         <v>44930</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3395,7 +3395,7 @@
         <v>46001.82864583333</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3485,7 +3485,7 @@
         <v>45655.74069444444</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3576,7 +3576,7 @@
         <v>45603</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3662,7 +3662,7 @@
         <v>45798.44185185185</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3753,7 +3753,7 @@
         <v>45798.44422453704</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3844,7 +3844,7 @@
         <v>44803</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3929,7 +3929,7 @@
         <v>44582</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4019,7 +4019,7 @@
         <v>44502</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4109,7 +4109,7 @@
         <v>44515</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4199,7 +4199,7 @@
         <v>45077</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4284,7 +4284,7 @@
         <v>44840</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4373,7 +4373,7 @@
         <v>45603</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4458,7 +4458,7 @@
         <v>44918</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4543,7 +4543,7 @@
         <v>44368</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4633,7 +4633,7 @@
         <v>45685</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4723,7 +4723,7 @@
         <v>45691</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4817,7 +4817,7 @@
         <v>45849</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4911,7 +4911,7 @@
         <v>45849.77498842592</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5005,7 +5005,7 @@
         <v>45926</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5094,7 +5094,7 @@
         <v>45946.66234953704</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5179,7 +5179,7 @@
         <v>45946.65936342593</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5264,7 +5264,7 @@
         <v>45012</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5354,7 +5354,7 @@
         <v>45957.47642361111</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5439,7 +5439,7 @@
         <v>44904.35087962963</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5524,7 +5524,7 @@
         <v>44984.37708333333</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5613,7 +5613,7 @@
         <v>46009.61564814814</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5702,7 +5702,7 @@
         <v>45107.03777777778</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5796,7 +5796,7 @@
         <v>44452</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5881,7 +5881,7 @@
         <v>46065.57876157408</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5966,7 +5966,7 @@
         <v>44854</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6055,7 +6055,7 @@
         <v>44834</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6144,7 +6144,7 @@
         <v>45385.54006944445</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6234,7 +6234,7 @@
         <v>45103</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6319,7 +6319,7 @@
         <v>45120</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6409,7 +6409,7 @@
         <v>44295</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6471,7 +6471,7 @@
         <v>44410</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6528,7 +6528,7 @@
         <v>44329</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6585,7 +6585,7 @@
         <v>44432</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6642,7 +6642,7 @@
         <v>44797</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6699,7 +6699,7 @@
         <v>44473</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6756,7 +6756,7 @@
         <v>44262</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6813,7 +6813,7 @@
         <v>44490</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6870,7 +6870,7 @@
         <v>44712</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6927,7 +6927,7 @@
         <v>44470</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6984,7 +6984,7 @@
         <v>44608</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7041,7 +7041,7 @@
         <v>44517.77648148148</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7098,7 +7098,7 @@
         <v>44517.78018518518</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7155,7 +7155,7 @@
         <v>44513.88376157408</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7212,7 +7212,7 @@
         <v>44781</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7269,7 +7269,7 @@
         <v>44588</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7331,7 +7331,7 @@
         <v>44671</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7388,7 +7388,7 @@
         <v>44763</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7445,7 +7445,7 @@
         <v>44403</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7502,7 +7502,7 @@
         <v>44533</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7559,7 +7559,7 @@
         <v>44432</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7616,7 +7616,7 @@
         <v>44432</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7673,7 +7673,7 @@
         <v>44470</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7730,7 +7730,7 @@
         <v>44516</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7787,7 +7787,7 @@
         <v>44754.58148148148</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7849,7 +7849,7 @@
         <v>44746</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7906,7 +7906,7 @@
         <v>44683</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7968,7 +7968,7 @@
         <v>44453</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -8025,7 +8025,7 @@
         <v>44712</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8082,7 +8082,7 @@
         <v>44628</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -8139,7 +8139,7 @@
         <v>44799</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8196,7 +8196,7 @@
         <v>44683</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8253,7 +8253,7 @@
         <v>44405</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8310,7 +8310,7 @@
         <v>44746</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8367,7 +8367,7 @@
         <v>44746</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8424,7 +8424,7 @@
         <v>44449</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8486,7 +8486,7 @@
         <v>44524</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8543,7 +8543,7 @@
         <v>44533.47033564815</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8600,7 +8600,7 @@
         <v>44689</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8657,7 +8657,7 @@
         <v>44746</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8719,7 +8719,7 @@
         <v>44350</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8776,7 +8776,7 @@
         <v>44349</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8833,7 +8833,7 @@
         <v>44468</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8890,7 +8890,7 @@
         <v>44533</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8947,7 +8947,7 @@
         <v>44280</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -9004,7 +9004,7 @@
         <v>44784</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -9061,7 +9061,7 @@
         <v>44449</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -9123,7 +9123,7 @@
         <v>44648</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9180,7 +9180,7 @@
         <v>44544</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9237,7 +9237,7 @@
         <v>44588.58922453703</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9294,7 +9294,7 @@
         <v>44628</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9351,7 +9351,7 @@
         <v>44536</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9408,7 +9408,7 @@
         <v>44536</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9465,7 +9465,7 @@
         <v>44328</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9522,7 +9522,7 @@
         <v>44781</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9579,7 +9579,7 @@
         <v>44804</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9636,7 +9636,7 @@
         <v>44734</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9693,7 +9693,7 @@
         <v>44588</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9750,7 +9750,7 @@
         <v>44461</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9807,7 +9807,7 @@
         <v>44578.55539351852</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9864,7 +9864,7 @@
         <v>44308</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9921,7 +9921,7 @@
         <v>44284</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9978,7 +9978,7 @@
         <v>44379</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -10035,7 +10035,7 @@
         <v>44362</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -10092,7 +10092,7 @@
         <v>44336</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10149,7 +10149,7 @@
         <v>44699</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10211,7 +10211,7 @@
         <v>44515</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10273,7 +10273,7 @@
         <v>44550</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10330,7 +10330,7 @@
         <v>44722.55524305555</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10392,7 +10392,7 @@
         <v>44804</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10449,7 +10449,7 @@
         <v>44482.55003472222</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10506,7 +10506,7 @@
         <v>44789</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10563,7 +10563,7 @@
         <v>44490</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10620,7 +10620,7 @@
         <v>44573</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10677,7 +10677,7 @@
         <v>44499</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10734,7 +10734,7 @@
         <v>44844</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10791,7 +10791,7 @@
         <v>44783</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10848,7 +10848,7 @@
         <v>44654</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10905,7 +10905,7 @@
         <v>44449</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10967,7 +10967,7 @@
         <v>44432</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -11024,7 +11024,7 @@
         <v>44490</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -11081,7 +11081,7 @@
         <v>44435</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11138,7 +11138,7 @@
         <v>44616</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11195,7 +11195,7 @@
         <v>44578.55100694444</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11252,7 +11252,7 @@
         <v>44426</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11309,7 +11309,7 @@
         <v>44426</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11366,7 +11366,7 @@
         <v>44510</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11423,7 +11423,7 @@
         <v>44643</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11480,7 +11480,7 @@
         <v>44781</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11537,7 +11537,7 @@
         <v>44636</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11594,7 +11594,7 @@
         <v>44782</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11651,7 +11651,7 @@
         <v>44865</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11713,7 +11713,7 @@
         <v>44533</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11770,7 +11770,7 @@
         <v>44748.47054398148</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11827,7 +11827,7 @@
         <v>44454</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11884,7 +11884,7 @@
         <v>44251</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11941,7 +11941,7 @@
         <v>44658</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -12003,7 +12003,7 @@
         <v>44804</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -12060,7 +12060,7 @@
         <v>45365.44949074074</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -12117,7 +12117,7 @@
         <v>45005</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12174,7 +12174,7 @@
         <v>44664</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12236,7 +12236,7 @@
         <v>44903</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12293,7 +12293,7 @@
         <v>45734</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12350,7 +12350,7 @@
         <v>44755</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12407,7 +12407,7 @@
         <v>44886</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12464,7 +12464,7 @@
         <v>45099</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12521,7 +12521,7 @@
         <v>44946</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12578,7 +12578,7 @@
         <v>45005</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12635,7 +12635,7 @@
         <v>45266.61707175926</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12692,7 +12692,7 @@
         <v>45307</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12754,7 +12754,7 @@
         <v>44937.42351851852</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12811,7 +12811,7 @@
         <v>44888.63946759259</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12868,7 +12868,7 @@
         <v>45012.32734953704</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12930,7 +12930,7 @@
         <v>45544</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12987,7 +12987,7 @@
         <v>45020</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -13044,7 +13044,7 @@
         <v>45341</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -13101,7 +13101,7 @@
         <v>44516</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13158,7 +13158,7 @@
         <v>45622.6533912037</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13215,7 +13215,7 @@
         <v>45407</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13272,7 +13272,7 @@
         <v>45240.35564814815</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13329,7 +13329,7 @@
         <v>44434</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13386,7 +13386,7 @@
         <v>45608.69983796297</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13448,7 +13448,7 @@
         <v>44819</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13505,7 +13505,7 @@
         <v>45514</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13562,7 +13562,7 @@
         <v>44874</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13619,7 +13619,7 @@
         <v>45301</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13676,7 +13676,7 @@
         <v>44942</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13733,7 +13733,7 @@
         <v>44768</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13795,7 +13795,7 @@
         <v>44634.64108796296</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13852,7 +13852,7 @@
         <v>45007.62168981481</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13909,7 +13909,7 @@
         <v>44525.9009375</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13966,7 +13966,7 @@
         <v>44525.9021875</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -14023,7 +14023,7 @@
         <v>44701</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -14080,7 +14080,7 @@
         <v>44729</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14142,7 +14142,7 @@
         <v>44582</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14199,7 +14199,7 @@
         <v>44889</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14256,7 +14256,7 @@
         <v>44886</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14313,7 +14313,7 @@
         <v>45670</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14370,7 +14370,7 @@
         <v>45680</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14427,7 +14427,7 @@
         <v>45163</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14484,7 +14484,7 @@
         <v>44804</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14541,7 +14541,7 @@
         <v>44483</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14603,7 +14603,7 @@
         <v>44844</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14660,7 +14660,7 @@
         <v>44844</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14717,7 +14717,7 @@
         <v>44883</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14774,7 +14774,7 @@
         <v>45660.61137731482</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14836,7 +14836,7 @@
         <v>45708.5396412037</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14893,7 +14893,7 @@
         <v>45266</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14950,7 +14950,7 @@
         <v>45544</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -15007,7 +15007,7 @@
         <v>45211.53525462963</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -15064,7 +15064,7 @@
         <v>45365.44756944444</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15121,7 +15121,7 @@
         <v>44889</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15178,7 +15178,7 @@
         <v>45006</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15235,7 +15235,7 @@
         <v>45041</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15292,7 +15292,7 @@
         <v>44886</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15349,7 +15349,7 @@
         <v>45414.60868055555</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15411,7 +15411,7 @@
         <v>45817.76539351852</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15468,7 +15468,7 @@
         <v>44536.35326388889</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15530,7 +15530,7 @@
         <v>44889</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15587,7 +15587,7 @@
         <v>44626</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15644,7 +15644,7 @@
         <v>45429</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15701,7 +15701,7 @@
         <v>45685</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15758,7 +15758,7 @@
         <v>45568.40231481481</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15815,7 +15815,7 @@
         <v>45217</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15872,7 +15872,7 @@
         <v>44537</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15929,7 +15929,7 @@
         <v>45560</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15986,7 +15986,7 @@
         <v>44544</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -16043,7 +16043,7 @@
         <v>45826.66998842593</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16100,7 +16100,7 @@
         <v>45826.67109953704</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16157,7 +16157,7 @@
         <v>44516</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16214,7 +16214,7 @@
         <v>45695</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16271,7 +16271,7 @@
         <v>45695</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16328,7 +16328,7 @@
         <v>45889.86215277778</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16390,7 +16390,7 @@
         <v>45889.87027777778</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16452,7 +16452,7 @@
         <v>45245</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16514,7 +16514,7 @@
         <v>45826.52690972222</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16571,7 +16571,7 @@
         <v>45826.72251157407</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16628,7 +16628,7 @@
         <v>45826.71982638889</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16685,7 +16685,7 @@
         <v>44915</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16742,7 +16742,7 @@
         <v>45894.50094907408</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16799,7 +16799,7 @@
         <v>45680</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16856,7 +16856,7 @@
         <v>44983</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16913,7 +16913,7 @@
         <v>45831.47563657408</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16970,7 +16970,7 @@
         <v>45897.47975694444</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -17032,7 +17032,7 @@
         <v>45897.64649305555</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17089,7 +17089,7 @@
         <v>45833.39927083333</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17146,7 +17146,7 @@
         <v>45897.41643518519</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17208,7 +17208,7 @@
         <v>45695</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17265,7 +17265,7 @@
         <v>45897</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17327,7 +17327,7 @@
         <v>45832.56721064815</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17389,7 +17389,7 @@
         <v>45637.43685185185</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17446,7 +17446,7 @@
         <v>45901.65155092593</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17503,7 +17503,7 @@
         <v>45898.5619212963</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17560,7 +17560,7 @@
         <v>45898.54829861111</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17617,7 +17617,7 @@
         <v>45245</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17679,7 +17679,7 @@
         <v>45006</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17736,7 +17736,7 @@
         <v>45062.34902777777</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17793,7 +17793,7 @@
         <v>44735.28875</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17850,7 +17850,7 @@
         <v>45334.70190972222</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17907,7 +17907,7 @@
         <v>45271</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17964,7 +17964,7 @@
         <v>44930</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -18021,7 +18021,7 @@
         <v>44858.57895833333</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18078,7 +18078,7 @@
         <v>45667</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18135,7 +18135,7 @@
         <v>45079</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18192,7 +18192,7 @@
         <v>45905.58692129629</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18249,7 +18249,7 @@
         <v>45049.40128472223</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18306,7 +18306,7 @@
         <v>44432</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18363,7 +18363,7 @@
         <v>45464.45482638889</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18420,7 +18420,7 @@
         <v>45036</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18477,7 +18477,7 @@
         <v>45905</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18534,7 +18534,7 @@
         <v>45910</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18591,7 +18591,7 @@
         <v>45694.4634375</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18648,7 +18648,7 @@
         <v>45685</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18705,7 +18705,7 @@
         <v>45685</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18762,7 +18762,7 @@
         <v>45237.71393518519</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18819,7 +18819,7 @@
         <v>45670</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18881,7 +18881,7 @@
         <v>45846</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18943,7 +18943,7 @@
         <v>45846.44305555556</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -19005,7 +19005,7 @@
         <v>45846.44430555555</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19067,7 +19067,7 @@
         <v>44495</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19124,7 +19124,7 @@
         <v>45849.79363425926</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19181,7 +19181,7 @@
         <v>45849.80846064815</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19238,7 +19238,7 @@
         <v>45093</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19295,7 +19295,7 @@
         <v>45918.45792824074</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19352,7 +19352,7 @@
         <v>44881</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19409,7 +19409,7 @@
         <v>45923</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19466,7 +19466,7 @@
         <v>45715</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19523,7 +19523,7 @@
         <v>44799</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19580,7 +19580,7 @@
         <v>45923</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19637,7 +19637,7 @@
         <v>45093</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19694,7 +19694,7 @@
         <v>45582.95277777778</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19751,7 +19751,7 @@
         <v>45867</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19808,7 +19808,7 @@
         <v>44616.71168981482</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19865,7 +19865,7 @@
         <v>45604.59530092592</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19922,7 +19922,7 @@
         <v>45869.28329861111</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19979,7 +19979,7 @@
         <v>45926</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20036,7 +20036,7 @@
         <v>45926</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20093,7 +20093,7 @@
         <v>44979</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20150,7 +20150,7 @@
         <v>45103</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20207,7 +20207,7 @@
         <v>45926</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20264,7 +20264,7 @@
         <v>45931</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20321,7 +20321,7 @@
         <v>45931.67982638889</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20378,7 +20378,7 @@
         <v>45460</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20435,7 +20435,7 @@
         <v>45875</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20492,7 +20492,7 @@
         <v>44490</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20549,7 +20549,7 @@
         <v>44634</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20606,7 +20606,7 @@
         <v>44955</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20663,7 +20663,7 @@
         <v>44946</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20720,7 +20720,7 @@
         <v>45885</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20777,7 +20777,7 @@
         <v>45917</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20834,7 +20834,7 @@
         <v>44490</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20891,7 +20891,7 @@
         <v>45945.38439814815</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20948,7 +20948,7 @@
         <v>44499</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21005,7 +21005,7 @@
         <v>44873</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21062,7 +21062,7 @@
         <v>44928</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21119,7 +21119,7 @@
         <v>44946</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21176,7 +21176,7 @@
         <v>45946.71481481481</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21233,7 +21233,7 @@
         <v>45946.71799768518</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21290,7 +21290,7 @@
         <v>45198</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21347,7 +21347,7 @@
         <v>45537.57546296297</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21404,7 +21404,7 @@
         <v>45341.55400462963</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21461,7 +21461,7 @@
         <v>45103</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21523,7 +21523,7 @@
         <v>45950.41737268519</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21580,7 +21580,7 @@
         <v>45496.61991898148</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21637,7 +21637,7 @@
         <v>45953.66923611111</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21694,7 +21694,7 @@
         <v>45670</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21751,7 +21751,7 @@
         <v>45953.34796296297</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21808,7 +21808,7 @@
         <v>45953.44787037037</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21865,7 +21865,7 @@
         <v>45953.44184027778</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21922,7 +21922,7 @@
         <v>45953.44493055555</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21979,7 +21979,7 @@
         <v>45953</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22036,7 +22036,7 @@
         <v>45953.45186342593</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22093,7 +22093,7 @@
         <v>45953.4840625</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22150,7 +22150,7 @@
         <v>44953</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22212,7 +22212,7 @@
         <v>45225.6690625</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22269,7 +22269,7 @@
         <v>45670.77166666667</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22326,7 +22326,7 @@
         <v>45737</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22383,7 +22383,7 @@
         <v>44965</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22440,7 +22440,7 @@
         <v>45954.70034722222</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22497,7 +22497,7 @@
         <v>44839</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22554,7 +22554,7 @@
         <v>45954.69859953703</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22611,7 +22611,7 @@
         <v>45954.72381944444</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22668,7 +22668,7 @@
         <v>44965</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22730,7 +22730,7 @@
         <v>44861</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22792,7 +22792,7 @@
         <v>44998</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22854,7 +22854,7 @@
         <v>44998</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22916,7 +22916,7 @@
         <v>45058</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22973,7 +22973,7 @@
         <v>45170</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23030,7 +23030,7 @@
         <v>44904</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23092,7 +23092,7 @@
         <v>45407</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23149,7 +23149,7 @@
         <v>44469</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23206,7 +23206,7 @@
         <v>45966.52162037037</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23263,7 +23263,7 @@
         <v>45966.69065972222</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23320,7 +23320,7 @@
         <v>45966.70978009259</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23377,7 +23377,7 @@
         <v>45966.49600694444</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23434,7 +23434,7 @@
         <v>45967.67565972222</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23491,7 +23491,7 @@
         <v>44626</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23548,7 +23548,7 @@
         <v>45119</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23610,7 +23610,7 @@
         <v>44803.35975694445</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23667,7 +23667,7 @@
         <v>44803.37219907407</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23724,7 +23724,7 @@
         <v>45974.71255787037</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23781,7 +23781,7 @@
         <v>44426</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23838,7 +23838,7 @@
         <v>45974.72075231482</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23895,7 +23895,7 @@
         <v>45229</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23957,7 +23957,7 @@
         <v>45974.71702546296</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24014,7 +24014,7 @@
         <v>45974.7244212963</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24071,7 +24071,7 @@
         <v>45965</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24128,7 +24128,7 @@
         <v>45977.81913194444</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24185,7 +24185,7 @@
         <v>45303.44210648148</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24242,7 +24242,7 @@
         <v>45303.44663194445</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24299,7 +24299,7 @@
         <v>45979.47262731481</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24356,7 +24356,7 @@
         <v>45209</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24413,7 +24413,7 @@
         <v>45979.47452546296</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24470,7 +24470,7 @@
         <v>45979.47876157407</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24527,7 +24527,7 @@
         <v>45209.4671875</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24584,7 +24584,7 @@
         <v>45004</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24641,7 +24641,7 @@
         <v>45750.48094907407</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24698,7 +24698,7 @@
         <v>45604.63023148148</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24755,7 +24755,7 @@
         <v>45146</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24817,7 +24817,7 @@
         <v>45973</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24879,7 +24879,7 @@
         <v>44467</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24936,7 +24936,7 @@
         <v>45992.63881944444</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24993,7 +24993,7 @@
         <v>45992.65880787037</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25050,7 +25050,7 @@
         <v>45166.54261574074</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25107,7 +25107,7 @@
         <v>45603</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25164,7 +25164,7 @@
         <v>45992.60670138889</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25221,7 +25221,7 @@
         <v>45992.619375</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25278,7 +25278,7 @@
         <v>45992.61385416667</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25335,7 +25335,7 @@
         <v>45077.52649305556</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25392,7 +25392,7 @@
         <v>45992.64505787037</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25449,7 +25449,7 @@
         <v>45303</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25506,7 +25506,7 @@
         <v>45994.75143518519</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25563,7 +25563,7 @@
         <v>45061</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25625,7 +25625,7 @@
         <v>45756</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25687,7 +25687,7 @@
         <v>45994.74487268519</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25744,7 +25744,7 @@
         <v>45999.56599537037</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25801,7 +25801,7 @@
         <v>45999</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25863,7 +25863,7 @@
         <v>44732</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25920,7 +25920,7 @@
         <v>45999.38288194445</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25977,7 +25977,7 @@
         <v>45643.73109953704</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26034,7 +26034,7 @@
         <v>45999.63010416667</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26116,7 +26116,7 @@
         <v>45672</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26173,7 +26173,7 @@
         <v>44837</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26235,7 +26235,7 @@
         <v>46001.33653935185</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26292,7 +26292,7 @@
         <v>46043.42224537037</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26349,7 +26349,7 @@
         <v>45518.66082175926</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26411,7 +26411,7 @@
         <v>46000.44707175926</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26473,7 +26473,7 @@
         <v>45655.72868055556</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26535,7 +26535,7 @@
         <v>44917</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26592,7 +26592,7 @@
         <v>46043.41954861111</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26649,7 +26649,7 @@
         <v>46001</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26711,7 +26711,7 @@
         <v>45999.90451388889</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26773,7 +26773,7 @@
         <v>46000.38015046297</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26835,7 +26835,7 @@
         <v>44886</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26892,7 +26892,7 @@
         <v>44671</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26949,7 +26949,7 @@
         <v>45950</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -27006,7 +27006,7 @@
         <v>44284</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -27063,7 +27063,7 @@
         <v>44285</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27120,7 +27120,7 @@
         <v>45435</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27177,7 +27177,7 @@
         <v>44468</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27234,7 +27234,7 @@
         <v>44942</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27291,7 +27291,7 @@
         <v>44572.44108796296</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27348,7 +27348,7 @@
         <v>44797.38288194445</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27405,7 +27405,7 @@
         <v>45429</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27462,7 +27462,7 @@
         <v>44916.35059027778</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27519,7 +27519,7 @@
         <v>44832</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27576,7 +27576,7 @@
         <v>45965</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27633,7 +27633,7 @@
         <v>46010.34185185185</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27695,7 +27695,7 @@
         <v>44588</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27752,7 +27752,7 @@
         <v>44382</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27809,7 +27809,7 @@
         <v>45387.47462962963</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27866,7 +27866,7 @@
         <v>44804</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27923,7 +27923,7 @@
         <v>44918</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27980,7 +27980,7 @@
         <v>45107</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -28042,7 +28042,7 @@
         <v>44729.76435185185</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28104,7 +28104,7 @@
         <v>45363.84224537037</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28166,7 +28166,7 @@
         <v>45737.56878472222</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28223,7 +28223,7 @@
         <v>45664</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28285,7 +28285,7 @@
         <v>45093</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28342,7 +28342,7 @@
         <v>44966</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28399,7 +28399,7 @@
         <v>45587.76261574074</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28456,7 +28456,7 @@
         <v>44452</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28513,7 +28513,7 @@
         <v>45103</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28570,7 +28570,7 @@
         <v>45103</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28627,7 +28627,7 @@
         <v>44956.65453703704</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28684,7 +28684,7 @@
         <v>45429</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28741,7 +28741,7 @@
         <v>44938.45799768518</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28798,7 +28798,7 @@
         <v>44851</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28855,7 +28855,7 @@
         <v>45069.42476851852</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28912,7 +28912,7 @@
         <v>46069.76747685186</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28969,7 +28969,7 @@
         <v>44606</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -29031,7 +29031,7 @@
         <v>45611.67729166667</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -29088,7 +29088,7 @@
         <v>45545.79994212963</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -29145,7 +29145,7 @@
         <v>44998.81229166667</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -29202,7 +29202,7 @@
         <v>44426</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -29259,7 +29259,7 @@
         <v>44915</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -29316,7 +29316,7 @@
         <v>44966</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29373,7 +29373,7 @@
         <v>44865</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29435,7 +29435,7 @@
         <v>44362</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29497,7 +29497,7 @@
         <v>46048</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29554,7 +29554,7 @@
         <v>44592</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29611,7 +29611,7 @@
         <v>45464.44983796297</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29668,7 +29668,7 @@
         <v>45531.34680555556</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29725,7 +29725,7 @@
         <v>44522</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29787,7 +29787,7 @@
         <v>45266</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29844,7 +29844,7 @@
         <v>45266</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29901,7 +29901,7 @@
         <v>44499</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29958,7 +29958,7 @@
         <v>44536</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -30015,7 +30015,7 @@
         <v>46073.71699074074</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -30072,7 +30072,7 @@
         <v>45713</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -30134,7 +30134,7 @@
         <v>44617</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -30191,7 +30191,7 @@
         <v>44482.55453703704</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -30248,7 +30248,7 @@
         <v>44739.4487037037</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -30305,7 +30305,7 @@
         <v>44964</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30362,7 +30362,7 @@
         <v>44930</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30419,7 +30419,7 @@
         <v>44889</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30476,7 +30476,7 @@
         <v>45608</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30538,7 +30538,7 @@
         <v>44698</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30600,7 +30600,7 @@
         <v>45715</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30657,7 +30657,7 @@
         <v>45387.63100694444</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30719,7 +30719,7 @@
         <v>45680</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30776,7 +30776,7 @@
         <v>44852.260625</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30833,7 +30833,7 @@
         <v>44729.38819444444</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30890,7 +30890,7 @@
         <v>44392.5977662037</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30952,7 +30952,7 @@
         <v>44741.72256944444</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -31009,7 +31009,7 @@
         <v>45267.63392361111</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -31066,7 +31066,7 @@
         <v>45267.64305555556</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -31123,7 +31123,7 @@
         <v>45680</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -31180,7 +31180,7 @@
         <v>45655.7484375</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -31242,7 +31242,7 @@
         <v>45329</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -31304,7 +31304,7 @@
         <v>45190</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31361,7 +31361,7 @@
         <v>45183</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31423,7 +31423,7 @@
         <v>44851</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31480,7 +31480,7 @@
         <v>45723.62978009259</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31537,7 +31537,7 @@
         <v>45363.94168981481</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31599,7 +31599,7 @@
         <v>45622.68819444445</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31656,7 +31656,7 @@
         <v>44515.65760416666</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31713,7 +31713,7 @@
         <v>44664</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31770,7 +31770,7 @@
         <v>45734</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31827,7 +31827,7 @@
         <v>44789</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31884,7 +31884,7 @@
         <v>45229</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31941,7 +31941,7 @@
         <v>45229</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -32003,7 +32003,7 @@
         <v>45303.4247337963</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -32060,7 +32060,7 @@
         <v>44917</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -32117,7 +32117,7 @@
         <v>44903</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -32174,7 +32174,7 @@
         <v>44903</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -32231,7 +32231,7 @@
         <v>44473</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -32288,7 +32288,7 @@
         <v>45737</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -32345,7 +32345,7 @@
         <v>44886</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32402,7 +32402,7 @@
         <v>44355</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32459,7 +32459,7 @@
         <v>44571.58237268519</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32516,7 +32516,7 @@
         <v>45303</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32573,7 +32573,7 @@
         <v>45303.43546296296</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -32630,7 +32630,7 @@
         <v>45303.44876157407</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32687,7 +32687,7 @@
         <v>45763</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32744,7 +32744,7 @@
         <v>44739.45480324074</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32801,7 +32801,7 @@
         <v>44298</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32858,7 +32858,7 @@
         <v>45167.35505787037</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32915,7 +32915,7 @@
         <v>44638</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32972,7 +32972,7 @@
         <v>45210.35028935185</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -33029,7 +33029,7 @@
         <v>45307</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -33091,7 +33091,7 @@
         <v>44525.90324074074</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -33148,7 +33148,7 @@
         <v>44497</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -33205,7 +33205,7 @@
         <v>44251</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -33262,7 +33262,7 @@
         <v>45182</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -33324,7 +33324,7 @@
         <v>44749</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -33381,7 +33381,7 @@
         <v>44946</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -33438,7 +33438,7 @@
         <v>45159</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33500,7 +33500,7 @@
         <v>44746.35266203704</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33557,7 +33557,7 @@
         <v>45056</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -33619,7 +33619,7 @@
         <v>45071</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33681,7 +33681,7 @@
         <v>45183</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33743,7 +33743,7 @@
         <v>45615.87693287037</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33800,7 +33800,7 @@
         <v>45776</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33857,7 +33857,7 @@
         <v>45674</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33914,7 +33914,7 @@
         <v>45642.89609953704</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33976,7 +33976,7 @@
         <v>45737.54170138889</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -34033,7 +34033,7 @@
         <v>45365.59789351852</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -34090,7 +34090,7 @@
         <v>44953.79731481482</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -34152,7 +34152,7 @@
         <v>45642</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -34214,7 +34214,7 @@
         <v>44593</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -34271,7 +34271,7 @@
         <v>45049</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -34328,7 +34328,7 @@
         <v>45792.379375</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -34385,7 +34385,7 @@
         <v>45791.85936342592</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -34442,7 +34442,7 @@
         <v>45792.35003472222</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34499,7 +34499,7 @@
         <v>45798.63770833334</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34556,7 +34556,7 @@
         <v>45798.64900462963</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -34613,7 +34613,7 @@
         <v>45798.67103009259</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34670,7 +34670,7 @@
         <v>45798.64447916667</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34727,7 +34727,7 @@
         <v>45798.64721064815</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34784,7 +34784,7 @@
         <v>45798.66695601852</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34841,7 +34841,7 @@
         <v>45798.43306712963</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34903,7 +34903,7 @@
         <v>45798.43482638889</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34965,7 +34965,7 @@
         <v>45798</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -35027,7 +35027,7 @@
         <v>45568.90701388889</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -35089,7 +35089,7 @@
         <v>45568.90762731482</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -35151,7 +35151,7 @@
         <v>45798.43913194445</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46074</v>
+        <v>46075</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>

--- a/Översikt ESKILSTUNA.xlsx
+++ b/Översikt ESKILSTUNA.xlsx
@@ -575,7 +575,7 @@
         <v>45217</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -677,7 +677,7 @@
         <v>45946</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -782,7 +782,7 @@
         <v>44426</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -885,7 +885,7 @@
         <v>44503.65498842593</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -983,7 +983,7 @@
         <v>45763</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1079,7 +1079,7 @@
         <v>45904.57581018518</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1175,7 +1175,7 @@
         <v>44470</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1270,7 +1270,7 @@
         <v>45034</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1367,7 +1367,7 @@
         <v>44581</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1460,7 +1460,7 @@
         <v>44953</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1561,7 +1561,7 @@
         <v>45063</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1649,7 +1649,7 @@
         <v>44789</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1741,7 +1741,7 @@
         <v>44657</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1837,7 +1837,7 @@
         <v>44916</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1924,7 +1924,7 @@
         <v>44953</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2024,7 +2024,7 @@
         <v>45881.67006944444</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2115,7 +2115,7 @@
         <v>45379.46256944445</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2207,7 +2207,7 @@
         <v>45715</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2294,7 +2294,7 @@
         <v>45044</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2381,7 +2381,7 @@
         <v>45194</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2476,7 +2476,7 @@
         <v>44284</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2576,7 +2576,7 @@
         <v>45763</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2667,7 +2667,7 @@
         <v>45763</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2758,7 +2758,7 @@
         <v>45686</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2845,7 +2845,7 @@
         <v>45805.49724537037</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2937,7 +2937,7 @@
         <v>45810.55597222222</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -3029,7 +3029,7 @@
         <v>44530</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3115,7 +3115,7 @@
         <v>45566</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3205,7 +3205,7 @@
         <v>45897.55863425926</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3300,7 +3300,7 @@
         <v>44930</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3395,7 +3395,7 @@
         <v>46001.82864583333</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3485,7 +3485,7 @@
         <v>45655.74069444444</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3576,7 +3576,7 @@
         <v>45603</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3662,7 +3662,7 @@
         <v>45798.44185185185</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3753,7 +3753,7 @@
         <v>45798.44422453704</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3844,7 +3844,7 @@
         <v>44803</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3929,7 +3929,7 @@
         <v>44582</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4019,7 +4019,7 @@
         <v>44502</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4109,7 +4109,7 @@
         <v>44515</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4199,7 +4199,7 @@
         <v>45077</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4284,7 +4284,7 @@
         <v>44840</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4373,7 +4373,7 @@
         <v>45603</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4458,7 +4458,7 @@
         <v>44918</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4543,7 +4543,7 @@
         <v>44368</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4633,7 +4633,7 @@
         <v>45685</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4723,7 +4723,7 @@
         <v>45691</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4817,7 +4817,7 @@
         <v>45849</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4911,7 +4911,7 @@
         <v>45849.77498842592</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -5005,7 +5005,7 @@
         <v>45926</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -5094,7 +5094,7 @@
         <v>45946.66234953704</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -5179,7 +5179,7 @@
         <v>45946.65936342593</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -5264,7 +5264,7 @@
         <v>45012</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -5354,7 +5354,7 @@
         <v>45957.47642361111</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5439,7 +5439,7 @@
         <v>44904.35087962963</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5524,7 +5524,7 @@
         <v>44984.37708333333</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5613,7 +5613,7 @@
         <v>46009.61564814814</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5702,7 +5702,7 @@
         <v>45107.03777777778</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5796,7 +5796,7 @@
         <v>44452</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5881,7 +5881,7 @@
         <v>46065.57876157408</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5966,7 +5966,7 @@
         <v>44854</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -6055,7 +6055,7 @@
         <v>44834</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -6144,7 +6144,7 @@
         <v>45385.54006944445</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -6234,7 +6234,7 @@
         <v>45103</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -6319,7 +6319,7 @@
         <v>45120</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -6409,7 +6409,7 @@
         <v>44295</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -6471,7 +6471,7 @@
         <v>44410</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -6528,7 +6528,7 @@
         <v>44329</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -6585,7 +6585,7 @@
         <v>44432</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -6642,7 +6642,7 @@
         <v>44797</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -6699,7 +6699,7 @@
         <v>44473</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -6756,7 +6756,7 @@
         <v>44262</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6813,7 +6813,7 @@
         <v>44490</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6870,7 +6870,7 @@
         <v>44712</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6927,7 +6927,7 @@
         <v>44470</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6984,7 +6984,7 @@
         <v>44608</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -7041,7 +7041,7 @@
         <v>44517.77648148148</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -7098,7 +7098,7 @@
         <v>44517.78018518518</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -7155,7 +7155,7 @@
         <v>44513.88376157408</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -7212,7 +7212,7 @@
         <v>44781</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -7269,7 +7269,7 @@
         <v>44588</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -7331,7 +7331,7 @@
         <v>44671</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -7388,7 +7388,7 @@
         <v>44763</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -7445,7 +7445,7 @@
         <v>44403</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -7502,7 +7502,7 @@
         <v>44533</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -7559,7 +7559,7 @@
         <v>44432</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -7616,7 +7616,7 @@
         <v>44432</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -7673,7 +7673,7 @@
         <v>44470</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -7730,7 +7730,7 @@
         <v>44516</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7787,7 +7787,7 @@
         <v>44754.58148148148</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7849,7 +7849,7 @@
         <v>44746</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7906,7 +7906,7 @@
         <v>44683</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7968,7 +7968,7 @@
         <v>44453</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -8025,7 +8025,7 @@
         <v>44712</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -8082,7 +8082,7 @@
         <v>44628</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -8139,7 +8139,7 @@
         <v>44799</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -8196,7 +8196,7 @@
         <v>44683</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -8253,7 +8253,7 @@
         <v>44405</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -8310,7 +8310,7 @@
         <v>44746</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -8367,7 +8367,7 @@
         <v>44746</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -8424,7 +8424,7 @@
         <v>44449</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -8486,7 +8486,7 @@
         <v>44524</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -8543,7 +8543,7 @@
         <v>44533.47033564815</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -8600,7 +8600,7 @@
         <v>44689</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -8657,7 +8657,7 @@
         <v>44746</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -8719,7 +8719,7 @@
         <v>44350</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8776,7 +8776,7 @@
         <v>44349</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8833,7 +8833,7 @@
         <v>44468</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8890,7 +8890,7 @@
         <v>44533</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8947,7 +8947,7 @@
         <v>44280</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -9004,7 +9004,7 @@
         <v>44784</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -9061,7 +9061,7 @@
         <v>44449</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -9123,7 +9123,7 @@
         <v>44648</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -9180,7 +9180,7 @@
         <v>44544</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -9237,7 +9237,7 @@
         <v>44588.58922453703</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -9294,7 +9294,7 @@
         <v>44628</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -9351,7 +9351,7 @@
         <v>44536</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -9408,7 +9408,7 @@
         <v>44536</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -9465,7 +9465,7 @@
         <v>44328</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -9522,7 +9522,7 @@
         <v>44781</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -9579,7 +9579,7 @@
         <v>44804</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -9636,7 +9636,7 @@
         <v>44734</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -9693,7 +9693,7 @@
         <v>44588</v>
       </c>
       <c r="C123" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D123" t="inlineStr">
         <is>
@@ -9750,7 +9750,7 @@
         <v>44461</v>
       </c>
       <c r="C124" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D124" t="inlineStr">
         <is>
@@ -9807,7 +9807,7 @@
         <v>44578.55539351852</v>
       </c>
       <c r="C125" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D125" t="inlineStr">
         <is>
@@ -9864,7 +9864,7 @@
         <v>44308</v>
       </c>
       <c r="C126" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D126" t="inlineStr">
         <is>
@@ -9921,7 +9921,7 @@
         <v>44284</v>
       </c>
       <c r="C127" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D127" t="inlineStr">
         <is>
@@ -9978,7 +9978,7 @@
         <v>44379</v>
       </c>
       <c r="C128" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D128" t="inlineStr">
         <is>
@@ -10035,7 +10035,7 @@
         <v>44362</v>
       </c>
       <c r="C129" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D129" t="inlineStr">
         <is>
@@ -10092,7 +10092,7 @@
         <v>44336</v>
       </c>
       <c r="C130" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D130" t="inlineStr">
         <is>
@@ -10149,7 +10149,7 @@
         <v>44699</v>
       </c>
       <c r="C131" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D131" t="inlineStr">
         <is>
@@ -10211,7 +10211,7 @@
         <v>44515</v>
       </c>
       <c r="C132" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D132" t="inlineStr">
         <is>
@@ -10273,7 +10273,7 @@
         <v>44550</v>
       </c>
       <c r="C133" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D133" t="inlineStr">
         <is>
@@ -10330,7 +10330,7 @@
         <v>44722.55524305555</v>
       </c>
       <c r="C134" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D134" t="inlineStr">
         <is>
@@ -10392,7 +10392,7 @@
         <v>44804</v>
       </c>
       <c r="C135" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D135" t="inlineStr">
         <is>
@@ -10449,7 +10449,7 @@
         <v>44482.55003472222</v>
       </c>
       <c r="C136" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D136" t="inlineStr">
         <is>
@@ -10506,7 +10506,7 @@
         <v>44789</v>
       </c>
       <c r="C137" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D137" t="inlineStr">
         <is>
@@ -10563,7 +10563,7 @@
         <v>44490</v>
       </c>
       <c r="C138" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D138" t="inlineStr">
         <is>
@@ -10620,7 +10620,7 @@
         <v>44573</v>
       </c>
       <c r="C139" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D139" t="inlineStr">
         <is>
@@ -10677,7 +10677,7 @@
         <v>44499</v>
       </c>
       <c r="C140" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D140" t="inlineStr">
         <is>
@@ -10734,7 +10734,7 @@
         <v>44844</v>
       </c>
       <c r="C141" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D141" t="inlineStr">
         <is>
@@ -10791,7 +10791,7 @@
         <v>44783</v>
       </c>
       <c r="C142" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D142" t="inlineStr">
         <is>
@@ -10848,7 +10848,7 @@
         <v>44654</v>
       </c>
       <c r="C143" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D143" t="inlineStr">
         <is>
@@ -10905,7 +10905,7 @@
         <v>44449</v>
       </c>
       <c r="C144" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D144" t="inlineStr">
         <is>
@@ -10967,7 +10967,7 @@
         <v>44432</v>
       </c>
       <c r="C145" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D145" t="inlineStr">
         <is>
@@ -11024,7 +11024,7 @@
         <v>44490</v>
       </c>
       <c r="C146" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D146" t="inlineStr">
         <is>
@@ -11081,7 +11081,7 @@
         <v>44435</v>
       </c>
       <c r="C147" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D147" t="inlineStr">
         <is>
@@ -11138,7 +11138,7 @@
         <v>44616</v>
       </c>
       <c r="C148" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D148" t="inlineStr">
         <is>
@@ -11195,7 +11195,7 @@
         <v>44578.55100694444</v>
       </c>
       <c r="C149" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D149" t="inlineStr">
         <is>
@@ -11252,7 +11252,7 @@
         <v>44426</v>
       </c>
       <c r="C150" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D150" t="inlineStr">
         <is>
@@ -11309,7 +11309,7 @@
         <v>44426</v>
       </c>
       <c r="C151" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D151" t="inlineStr">
         <is>
@@ -11366,7 +11366,7 @@
         <v>44510</v>
       </c>
       <c r="C152" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D152" t="inlineStr">
         <is>
@@ -11423,7 +11423,7 @@
         <v>44643</v>
       </c>
       <c r="C153" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D153" t="inlineStr">
         <is>
@@ -11480,7 +11480,7 @@
         <v>44781</v>
       </c>
       <c r="C154" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D154" t="inlineStr">
         <is>
@@ -11537,7 +11537,7 @@
         <v>44636</v>
       </c>
       <c r="C155" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D155" t="inlineStr">
         <is>
@@ -11594,7 +11594,7 @@
         <v>44782</v>
       </c>
       <c r="C156" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D156" t="inlineStr">
         <is>
@@ -11651,7 +11651,7 @@
         <v>44865</v>
       </c>
       <c r="C157" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D157" t="inlineStr">
         <is>
@@ -11713,7 +11713,7 @@
         <v>44533</v>
       </c>
       <c r="C158" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D158" t="inlineStr">
         <is>
@@ -11770,7 +11770,7 @@
         <v>44748.47054398148</v>
       </c>
       <c r="C159" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D159" t="inlineStr">
         <is>
@@ -11827,7 +11827,7 @@
         <v>44454</v>
       </c>
       <c r="C160" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D160" t="inlineStr">
         <is>
@@ -11884,7 +11884,7 @@
         <v>44251</v>
       </c>
       <c r="C161" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D161" t="inlineStr">
         <is>
@@ -11941,7 +11941,7 @@
         <v>44658</v>
       </c>
       <c r="C162" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D162" t="inlineStr">
         <is>
@@ -12003,7 +12003,7 @@
         <v>44804</v>
       </c>
       <c r="C163" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D163" t="inlineStr">
         <is>
@@ -12060,7 +12060,7 @@
         <v>45365.44949074074</v>
       </c>
       <c r="C164" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D164" t="inlineStr">
         <is>
@@ -12117,7 +12117,7 @@
         <v>45005</v>
       </c>
       <c r="C165" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D165" t="inlineStr">
         <is>
@@ -12174,7 +12174,7 @@
         <v>44664</v>
       </c>
       <c r="C166" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D166" t="inlineStr">
         <is>
@@ -12236,7 +12236,7 @@
         <v>44903</v>
       </c>
       <c r="C167" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D167" t="inlineStr">
         <is>
@@ -12293,7 +12293,7 @@
         <v>45734</v>
       </c>
       <c r="C168" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D168" t="inlineStr">
         <is>
@@ -12350,7 +12350,7 @@
         <v>44755</v>
       </c>
       <c r="C169" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D169" t="inlineStr">
         <is>
@@ -12407,7 +12407,7 @@
         <v>44886</v>
       </c>
       <c r="C170" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D170" t="inlineStr">
         <is>
@@ -12464,7 +12464,7 @@
         <v>45099</v>
       </c>
       <c r="C171" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D171" t="inlineStr">
         <is>
@@ -12521,7 +12521,7 @@
         <v>44946</v>
       </c>
       <c r="C172" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D172" t="inlineStr">
         <is>
@@ -12578,7 +12578,7 @@
         <v>45005</v>
       </c>
       <c r="C173" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D173" t="inlineStr">
         <is>
@@ -12635,7 +12635,7 @@
         <v>45266.61707175926</v>
       </c>
       <c r="C174" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D174" t="inlineStr">
         <is>
@@ -12692,7 +12692,7 @@
         <v>45307</v>
       </c>
       <c r="C175" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D175" t="inlineStr">
         <is>
@@ -12754,7 +12754,7 @@
         <v>44937.42351851852</v>
       </c>
       <c r="C176" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D176" t="inlineStr">
         <is>
@@ -12811,7 +12811,7 @@
         <v>44888.63946759259</v>
       </c>
       <c r="C177" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D177" t="inlineStr">
         <is>
@@ -12868,7 +12868,7 @@
         <v>45012.32734953704</v>
       </c>
       <c r="C178" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D178" t="inlineStr">
         <is>
@@ -12930,7 +12930,7 @@
         <v>45544</v>
       </c>
       <c r="C179" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D179" t="inlineStr">
         <is>
@@ -12987,7 +12987,7 @@
         <v>45020</v>
       </c>
       <c r="C180" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D180" t="inlineStr">
         <is>
@@ -13044,7 +13044,7 @@
         <v>45341</v>
       </c>
       <c r="C181" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D181" t="inlineStr">
         <is>
@@ -13101,7 +13101,7 @@
         <v>44516</v>
       </c>
       <c r="C182" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D182" t="inlineStr">
         <is>
@@ -13158,7 +13158,7 @@
         <v>45622.6533912037</v>
       </c>
       <c r="C183" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D183" t="inlineStr">
         <is>
@@ -13215,7 +13215,7 @@
         <v>45407</v>
       </c>
       <c r="C184" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D184" t="inlineStr">
         <is>
@@ -13272,7 +13272,7 @@
         <v>45240.35564814815</v>
       </c>
       <c r="C185" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D185" t="inlineStr">
         <is>
@@ -13329,7 +13329,7 @@
         <v>44434</v>
       </c>
       <c r="C186" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D186" t="inlineStr">
         <is>
@@ -13386,7 +13386,7 @@
         <v>45608.69983796297</v>
       </c>
       <c r="C187" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D187" t="inlineStr">
         <is>
@@ -13448,7 +13448,7 @@
         <v>44819</v>
       </c>
       <c r="C188" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D188" t="inlineStr">
         <is>
@@ -13505,7 +13505,7 @@
         <v>45514</v>
       </c>
       <c r="C189" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D189" t="inlineStr">
         <is>
@@ -13562,7 +13562,7 @@
         <v>44874</v>
       </c>
       <c r="C190" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D190" t="inlineStr">
         <is>
@@ -13619,7 +13619,7 @@
         <v>45301</v>
       </c>
       <c r="C191" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D191" t="inlineStr">
         <is>
@@ -13676,7 +13676,7 @@
         <v>44942</v>
       </c>
       <c r="C192" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D192" t="inlineStr">
         <is>
@@ -13733,7 +13733,7 @@
         <v>44768</v>
       </c>
       <c r="C193" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D193" t="inlineStr">
         <is>
@@ -13795,7 +13795,7 @@
         <v>44634.64108796296</v>
       </c>
       <c r="C194" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D194" t="inlineStr">
         <is>
@@ -13852,7 +13852,7 @@
         <v>45007.62168981481</v>
       </c>
       <c r="C195" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D195" t="inlineStr">
         <is>
@@ -13909,7 +13909,7 @@
         <v>44525.9009375</v>
       </c>
       <c r="C196" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D196" t="inlineStr">
         <is>
@@ -13966,7 +13966,7 @@
         <v>44525.9021875</v>
       </c>
       <c r="C197" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D197" t="inlineStr">
         <is>
@@ -14023,7 +14023,7 @@
         <v>44701</v>
       </c>
       <c r="C198" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D198" t="inlineStr">
         <is>
@@ -14080,7 +14080,7 @@
         <v>44729</v>
       </c>
       <c r="C199" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D199" t="inlineStr">
         <is>
@@ -14142,7 +14142,7 @@
         <v>44582</v>
       </c>
       <c r="C200" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D200" t="inlineStr">
         <is>
@@ -14199,7 +14199,7 @@
         <v>44889</v>
       </c>
       <c r="C201" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D201" t="inlineStr">
         <is>
@@ -14256,7 +14256,7 @@
         <v>44886</v>
       </c>
       <c r="C202" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D202" t="inlineStr">
         <is>
@@ -14313,7 +14313,7 @@
         <v>45670</v>
       </c>
       <c r="C203" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D203" t="inlineStr">
         <is>
@@ -14370,7 +14370,7 @@
         <v>45680</v>
       </c>
       <c r="C204" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D204" t="inlineStr">
         <is>
@@ -14427,7 +14427,7 @@
         <v>45163</v>
       </c>
       <c r="C205" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D205" t="inlineStr">
         <is>
@@ -14484,7 +14484,7 @@
         <v>44804</v>
       </c>
       <c r="C206" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D206" t="inlineStr">
         <is>
@@ -14541,7 +14541,7 @@
         <v>44483</v>
       </c>
       <c r="C207" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D207" t="inlineStr">
         <is>
@@ -14603,7 +14603,7 @@
         <v>44844</v>
       </c>
       <c r="C208" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D208" t="inlineStr">
         <is>
@@ -14660,7 +14660,7 @@
         <v>44844</v>
       </c>
       <c r="C209" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D209" t="inlineStr">
         <is>
@@ -14717,7 +14717,7 @@
         <v>44883</v>
       </c>
       <c r="C210" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D210" t="inlineStr">
         <is>
@@ -14774,7 +14774,7 @@
         <v>45660.61137731482</v>
       </c>
       <c r="C211" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D211" t="inlineStr">
         <is>
@@ -14836,7 +14836,7 @@
         <v>45708.5396412037</v>
       </c>
       <c r="C212" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D212" t="inlineStr">
         <is>
@@ -14893,7 +14893,7 @@
         <v>45266</v>
       </c>
       <c r="C213" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D213" t="inlineStr">
         <is>
@@ -14950,7 +14950,7 @@
         <v>45544</v>
       </c>
       <c r="C214" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D214" t="inlineStr">
         <is>
@@ -15007,7 +15007,7 @@
         <v>45211.53525462963</v>
       </c>
       <c r="C215" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D215" t="inlineStr">
         <is>
@@ -15064,7 +15064,7 @@
         <v>45365.44756944444</v>
       </c>
       <c r="C216" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D216" t="inlineStr">
         <is>
@@ -15121,7 +15121,7 @@
         <v>44889</v>
       </c>
       <c r="C217" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D217" t="inlineStr">
         <is>
@@ -15178,7 +15178,7 @@
         <v>45006</v>
       </c>
       <c r="C218" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D218" t="inlineStr">
         <is>
@@ -15235,7 +15235,7 @@
         <v>45041</v>
       </c>
       <c r="C219" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D219" t="inlineStr">
         <is>
@@ -15292,7 +15292,7 @@
         <v>44886</v>
       </c>
       <c r="C220" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D220" t="inlineStr">
         <is>
@@ -15349,7 +15349,7 @@
         <v>45414.60868055555</v>
       </c>
       <c r="C221" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D221" t="inlineStr">
         <is>
@@ -15411,7 +15411,7 @@
         <v>45817.76539351852</v>
       </c>
       <c r="C222" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D222" t="inlineStr">
         <is>
@@ -15468,7 +15468,7 @@
         <v>44536.35326388889</v>
       </c>
       <c r="C223" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D223" t="inlineStr">
         <is>
@@ -15530,7 +15530,7 @@
         <v>44889</v>
       </c>
       <c r="C224" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D224" t="inlineStr">
         <is>
@@ -15587,7 +15587,7 @@
         <v>44626</v>
       </c>
       <c r="C225" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D225" t="inlineStr">
         <is>
@@ -15644,7 +15644,7 @@
         <v>45429</v>
       </c>
       <c r="C226" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D226" t="inlineStr">
         <is>
@@ -15701,7 +15701,7 @@
         <v>45685</v>
       </c>
       <c r="C227" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D227" t="inlineStr">
         <is>
@@ -15758,7 +15758,7 @@
         <v>45568.40231481481</v>
       </c>
       <c r="C228" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D228" t="inlineStr">
         <is>
@@ -15815,7 +15815,7 @@
         <v>45217</v>
       </c>
       <c r="C229" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D229" t="inlineStr">
         <is>
@@ -15872,7 +15872,7 @@
         <v>44537</v>
       </c>
       <c r="C230" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D230" t="inlineStr">
         <is>
@@ -15929,7 +15929,7 @@
         <v>45560</v>
       </c>
       <c r="C231" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D231" t="inlineStr">
         <is>
@@ -15986,7 +15986,7 @@
         <v>44544</v>
       </c>
       <c r="C232" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D232" t="inlineStr">
         <is>
@@ -16043,7 +16043,7 @@
         <v>45826.66998842593</v>
       </c>
       <c r="C233" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D233" t="inlineStr">
         <is>
@@ -16100,7 +16100,7 @@
         <v>45826.67109953704</v>
       </c>
       <c r="C234" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D234" t="inlineStr">
         <is>
@@ -16157,7 +16157,7 @@
         <v>44516</v>
       </c>
       <c r="C235" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D235" t="inlineStr">
         <is>
@@ -16214,7 +16214,7 @@
         <v>45695</v>
       </c>
       <c r="C236" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D236" t="inlineStr">
         <is>
@@ -16271,7 +16271,7 @@
         <v>45695</v>
       </c>
       <c r="C237" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D237" t="inlineStr">
         <is>
@@ -16328,7 +16328,7 @@
         <v>45889.86215277778</v>
       </c>
       <c r="C238" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D238" t="inlineStr">
         <is>
@@ -16390,7 +16390,7 @@
         <v>45889.87027777778</v>
       </c>
       <c r="C239" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D239" t="inlineStr">
         <is>
@@ -16452,7 +16452,7 @@
         <v>45245</v>
       </c>
       <c r="C240" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D240" t="inlineStr">
         <is>
@@ -16514,7 +16514,7 @@
         <v>45826.52690972222</v>
       </c>
       <c r="C241" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D241" t="inlineStr">
         <is>
@@ -16571,7 +16571,7 @@
         <v>45826.72251157407</v>
       </c>
       <c r="C242" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D242" t="inlineStr">
         <is>
@@ -16628,7 +16628,7 @@
         <v>45826.71982638889</v>
       </c>
       <c r="C243" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D243" t="inlineStr">
         <is>
@@ -16685,7 +16685,7 @@
         <v>44915</v>
       </c>
       <c r="C244" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D244" t="inlineStr">
         <is>
@@ -16742,7 +16742,7 @@
         <v>45894.50094907408</v>
       </c>
       <c r="C245" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D245" t="inlineStr">
         <is>
@@ -16799,7 +16799,7 @@
         <v>45680</v>
       </c>
       <c r="C246" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D246" t="inlineStr">
         <is>
@@ -16856,7 +16856,7 @@
         <v>44983</v>
       </c>
       <c r="C247" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D247" t="inlineStr">
         <is>
@@ -16913,7 +16913,7 @@
         <v>45831.47563657408</v>
       </c>
       <c r="C248" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D248" t="inlineStr">
         <is>
@@ -16970,7 +16970,7 @@
         <v>45897.47975694444</v>
       </c>
       <c r="C249" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D249" t="inlineStr">
         <is>
@@ -17032,7 +17032,7 @@
         <v>45897.64649305555</v>
       </c>
       <c r="C250" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D250" t="inlineStr">
         <is>
@@ -17089,7 +17089,7 @@
         <v>45833.39927083333</v>
       </c>
       <c r="C251" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D251" t="inlineStr">
         <is>
@@ -17146,7 +17146,7 @@
         <v>45897.41643518519</v>
       </c>
       <c r="C252" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D252" t="inlineStr">
         <is>
@@ -17208,7 +17208,7 @@
         <v>45695</v>
       </c>
       <c r="C253" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D253" t="inlineStr">
         <is>
@@ -17265,7 +17265,7 @@
         <v>45897</v>
       </c>
       <c r="C254" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D254" t="inlineStr">
         <is>
@@ -17327,7 +17327,7 @@
         <v>45832.56721064815</v>
       </c>
       <c r="C255" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D255" t="inlineStr">
         <is>
@@ -17389,7 +17389,7 @@
         <v>45637.43685185185</v>
       </c>
       <c r="C256" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D256" t="inlineStr">
         <is>
@@ -17446,7 +17446,7 @@
         <v>45901.65155092593</v>
       </c>
       <c r="C257" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D257" t="inlineStr">
         <is>
@@ -17503,7 +17503,7 @@
         <v>45898.5619212963</v>
       </c>
       <c r="C258" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D258" t="inlineStr">
         <is>
@@ -17560,7 +17560,7 @@
         <v>45898.54829861111</v>
       </c>
       <c r="C259" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D259" t="inlineStr">
         <is>
@@ -17617,7 +17617,7 @@
         <v>45245</v>
       </c>
       <c r="C260" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D260" t="inlineStr">
         <is>
@@ -17679,7 +17679,7 @@
         <v>45006</v>
       </c>
       <c r="C261" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D261" t="inlineStr">
         <is>
@@ -17736,7 +17736,7 @@
         <v>45062.34902777777</v>
       </c>
       <c r="C262" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D262" t="inlineStr">
         <is>
@@ -17793,7 +17793,7 @@
         <v>44735.28875</v>
       </c>
       <c r="C263" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D263" t="inlineStr">
         <is>
@@ -17850,7 +17850,7 @@
         <v>45334.70190972222</v>
       </c>
       <c r="C264" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D264" t="inlineStr">
         <is>
@@ -17907,7 +17907,7 @@
         <v>45271</v>
       </c>
       <c r="C265" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D265" t="inlineStr">
         <is>
@@ -17964,7 +17964,7 @@
         <v>44930</v>
       </c>
       <c r="C266" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D266" t="inlineStr">
         <is>
@@ -18021,7 +18021,7 @@
         <v>44858.57895833333</v>
       </c>
       <c r="C267" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D267" t="inlineStr">
         <is>
@@ -18078,7 +18078,7 @@
         <v>45667</v>
       </c>
       <c r="C268" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D268" t="inlineStr">
         <is>
@@ -18135,7 +18135,7 @@
         <v>45079</v>
       </c>
       <c r="C269" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D269" t="inlineStr">
         <is>
@@ -18192,7 +18192,7 @@
         <v>45905.58692129629</v>
       </c>
       <c r="C270" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D270" t="inlineStr">
         <is>
@@ -18249,7 +18249,7 @@
         <v>45049.40128472223</v>
       </c>
       <c r="C271" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D271" t="inlineStr">
         <is>
@@ -18306,7 +18306,7 @@
         <v>44432</v>
       </c>
       <c r="C272" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D272" t="inlineStr">
         <is>
@@ -18363,7 +18363,7 @@
         <v>45464.45482638889</v>
       </c>
       <c r="C273" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D273" t="inlineStr">
         <is>
@@ -18420,7 +18420,7 @@
         <v>45036</v>
       </c>
       <c r="C274" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D274" t="inlineStr">
         <is>
@@ -18477,7 +18477,7 @@
         <v>45905</v>
       </c>
       <c r="C275" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D275" t="inlineStr">
         <is>
@@ -18534,7 +18534,7 @@
         <v>45910</v>
       </c>
       <c r="C276" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D276" t="inlineStr">
         <is>
@@ -18591,7 +18591,7 @@
         <v>45694.4634375</v>
       </c>
       <c r="C277" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D277" t="inlineStr">
         <is>
@@ -18648,7 +18648,7 @@
         <v>45685</v>
       </c>
       <c r="C278" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D278" t="inlineStr">
         <is>
@@ -18705,7 +18705,7 @@
         <v>45685</v>
       </c>
       <c r="C279" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D279" t="inlineStr">
         <is>
@@ -18762,7 +18762,7 @@
         <v>45237.71393518519</v>
       </c>
       <c r="C280" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D280" t="inlineStr">
         <is>
@@ -18819,7 +18819,7 @@
         <v>45670</v>
       </c>
       <c r="C281" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D281" t="inlineStr">
         <is>
@@ -18881,7 +18881,7 @@
         <v>45846</v>
       </c>
       <c r="C282" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D282" t="inlineStr">
         <is>
@@ -18943,7 +18943,7 @@
         <v>45846.44305555556</v>
       </c>
       <c r="C283" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D283" t="inlineStr">
         <is>
@@ -19005,7 +19005,7 @@
         <v>45846.44430555555</v>
       </c>
       <c r="C284" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D284" t="inlineStr">
         <is>
@@ -19067,7 +19067,7 @@
         <v>44495</v>
       </c>
       <c r="C285" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D285" t="inlineStr">
         <is>
@@ -19124,7 +19124,7 @@
         <v>45849.79363425926</v>
       </c>
       <c r="C286" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D286" t="inlineStr">
         <is>
@@ -19181,7 +19181,7 @@
         <v>45849.80846064815</v>
       </c>
       <c r="C287" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D287" t="inlineStr">
         <is>
@@ -19238,7 +19238,7 @@
         <v>45093</v>
       </c>
       <c r="C288" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D288" t="inlineStr">
         <is>
@@ -19295,7 +19295,7 @@
         <v>45918.45792824074</v>
       </c>
       <c r="C289" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D289" t="inlineStr">
         <is>
@@ -19352,7 +19352,7 @@
         <v>44881</v>
       </c>
       <c r="C290" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D290" t="inlineStr">
         <is>
@@ -19409,7 +19409,7 @@
         <v>45923</v>
       </c>
       <c r="C291" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D291" t="inlineStr">
         <is>
@@ -19466,7 +19466,7 @@
         <v>45715</v>
       </c>
       <c r="C292" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D292" t="inlineStr">
         <is>
@@ -19523,7 +19523,7 @@
         <v>44799</v>
       </c>
       <c r="C293" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D293" t="inlineStr">
         <is>
@@ -19580,7 +19580,7 @@
         <v>45923</v>
       </c>
       <c r="C294" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D294" t="inlineStr">
         <is>
@@ -19637,7 +19637,7 @@
         <v>45093</v>
       </c>
       <c r="C295" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D295" t="inlineStr">
         <is>
@@ -19694,7 +19694,7 @@
         <v>45582.95277777778</v>
       </c>
       <c r="C296" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D296" t="inlineStr">
         <is>
@@ -19751,7 +19751,7 @@
         <v>45867</v>
       </c>
       <c r="C297" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D297" t="inlineStr">
         <is>
@@ -19808,7 +19808,7 @@
         <v>44616.71168981482</v>
       </c>
       <c r="C298" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D298" t="inlineStr">
         <is>
@@ -19865,7 +19865,7 @@
         <v>45604.59530092592</v>
       </c>
       <c r="C299" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D299" t="inlineStr">
         <is>
@@ -19922,7 +19922,7 @@
         <v>45869.28329861111</v>
       </c>
       <c r="C300" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D300" t="inlineStr">
         <is>
@@ -19979,7 +19979,7 @@
         <v>45926</v>
       </c>
       <c r="C301" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D301" t="inlineStr">
         <is>
@@ -20036,7 +20036,7 @@
         <v>45926</v>
       </c>
       <c r="C302" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D302" t="inlineStr">
         <is>
@@ -20093,7 +20093,7 @@
         <v>44979</v>
       </c>
       <c r="C303" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D303" t="inlineStr">
         <is>
@@ -20150,7 +20150,7 @@
         <v>45103</v>
       </c>
       <c r="C304" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D304" t="inlineStr">
         <is>
@@ -20207,7 +20207,7 @@
         <v>45926</v>
       </c>
       <c r="C305" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D305" t="inlineStr">
         <is>
@@ -20264,7 +20264,7 @@
         <v>45931</v>
       </c>
       <c r="C306" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D306" t="inlineStr">
         <is>
@@ -20321,7 +20321,7 @@
         <v>45931.67982638889</v>
       </c>
       <c r="C307" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D307" t="inlineStr">
         <is>
@@ -20378,7 +20378,7 @@
         <v>45460</v>
       </c>
       <c r="C308" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D308" t="inlineStr">
         <is>
@@ -20435,7 +20435,7 @@
         <v>45875</v>
       </c>
       <c r="C309" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D309" t="inlineStr">
         <is>
@@ -20492,7 +20492,7 @@
         <v>44490</v>
       </c>
       <c r="C310" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D310" t="inlineStr">
         <is>
@@ -20549,7 +20549,7 @@
         <v>44634</v>
       </c>
       <c r="C311" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D311" t="inlineStr">
         <is>
@@ -20606,7 +20606,7 @@
         <v>44955</v>
       </c>
       <c r="C312" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D312" t="inlineStr">
         <is>
@@ -20663,7 +20663,7 @@
         <v>44946</v>
       </c>
       <c r="C313" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D313" t="inlineStr">
         <is>
@@ -20720,7 +20720,7 @@
         <v>45885</v>
       </c>
       <c r="C314" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D314" t="inlineStr">
         <is>
@@ -20777,7 +20777,7 @@
         <v>45917</v>
       </c>
       <c r="C315" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D315" t="inlineStr">
         <is>
@@ -20834,7 +20834,7 @@
         <v>44490</v>
       </c>
       <c r="C316" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D316" t="inlineStr">
         <is>
@@ -20891,7 +20891,7 @@
         <v>45945.38439814815</v>
       </c>
       <c r="C317" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D317" t="inlineStr">
         <is>
@@ -20948,7 +20948,7 @@
         <v>44499</v>
       </c>
       <c r="C318" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D318" t="inlineStr">
         <is>
@@ -21005,7 +21005,7 @@
         <v>44873</v>
       </c>
       <c r="C319" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D319" t="inlineStr">
         <is>
@@ -21062,7 +21062,7 @@
         <v>44928</v>
       </c>
       <c r="C320" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D320" t="inlineStr">
         <is>
@@ -21119,7 +21119,7 @@
         <v>44946</v>
       </c>
       <c r="C321" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D321" t="inlineStr">
         <is>
@@ -21176,7 +21176,7 @@
         <v>45946.71481481481</v>
       </c>
       <c r="C322" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D322" t="inlineStr">
         <is>
@@ -21233,7 +21233,7 @@
         <v>45946.71799768518</v>
       </c>
       <c r="C323" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D323" t="inlineStr">
         <is>
@@ -21290,7 +21290,7 @@
         <v>45198</v>
       </c>
       <c r="C324" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D324" t="inlineStr">
         <is>
@@ -21347,7 +21347,7 @@
         <v>45537.57546296297</v>
       </c>
       <c r="C325" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D325" t="inlineStr">
         <is>
@@ -21404,7 +21404,7 @@
         <v>45341.55400462963</v>
       </c>
       <c r="C326" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D326" t="inlineStr">
         <is>
@@ -21461,7 +21461,7 @@
         <v>45103</v>
       </c>
       <c r="C327" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D327" t="inlineStr">
         <is>
@@ -21523,7 +21523,7 @@
         <v>45950.41737268519</v>
       </c>
       <c r="C328" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D328" t="inlineStr">
         <is>
@@ -21580,7 +21580,7 @@
         <v>45496.61991898148</v>
       </c>
       <c r="C329" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D329" t="inlineStr">
         <is>
@@ -21637,7 +21637,7 @@
         <v>45953.66923611111</v>
       </c>
       <c r="C330" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D330" t="inlineStr">
         <is>
@@ -21694,7 +21694,7 @@
         <v>45670</v>
       </c>
       <c r="C331" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D331" t="inlineStr">
         <is>
@@ -21751,7 +21751,7 @@
         <v>45953.34796296297</v>
       </c>
       <c r="C332" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D332" t="inlineStr">
         <is>
@@ -21808,7 +21808,7 @@
         <v>45953.44787037037</v>
       </c>
       <c r="C333" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D333" t="inlineStr">
         <is>
@@ -21865,7 +21865,7 @@
         <v>45953.44184027778</v>
       </c>
       <c r="C334" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D334" t="inlineStr">
         <is>
@@ -21922,7 +21922,7 @@
         <v>45953.44493055555</v>
       </c>
       <c r="C335" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D335" t="inlineStr">
         <is>
@@ -21979,7 +21979,7 @@
         <v>45953</v>
       </c>
       <c r="C336" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D336" t="inlineStr">
         <is>
@@ -22036,7 +22036,7 @@
         <v>45953.45186342593</v>
       </c>
       <c r="C337" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D337" t="inlineStr">
         <is>
@@ -22093,7 +22093,7 @@
         <v>45953.4840625</v>
       </c>
       <c r="C338" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D338" t="inlineStr">
         <is>
@@ -22150,7 +22150,7 @@
         <v>44953</v>
       </c>
       <c r="C339" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D339" t="inlineStr">
         <is>
@@ -22212,7 +22212,7 @@
         <v>45225.6690625</v>
       </c>
       <c r="C340" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D340" t="inlineStr">
         <is>
@@ -22269,7 +22269,7 @@
         <v>45670.77166666667</v>
       </c>
       <c r="C341" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D341" t="inlineStr">
         <is>
@@ -22326,7 +22326,7 @@
         <v>45737</v>
       </c>
       <c r="C342" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D342" t="inlineStr">
         <is>
@@ -22383,7 +22383,7 @@
         <v>44965</v>
       </c>
       <c r="C343" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D343" t="inlineStr">
         <is>
@@ -22440,7 +22440,7 @@
         <v>45954.70034722222</v>
       </c>
       <c r="C344" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D344" t="inlineStr">
         <is>
@@ -22497,7 +22497,7 @@
         <v>44839</v>
       </c>
       <c r="C345" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D345" t="inlineStr">
         <is>
@@ -22554,7 +22554,7 @@
         <v>45954.69859953703</v>
       </c>
       <c r="C346" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D346" t="inlineStr">
         <is>
@@ -22611,7 +22611,7 @@
         <v>45954.72381944444</v>
       </c>
       <c r="C347" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D347" t="inlineStr">
         <is>
@@ -22668,7 +22668,7 @@
         <v>44965</v>
       </c>
       <c r="C348" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D348" t="inlineStr">
         <is>
@@ -22730,7 +22730,7 @@
         <v>44861</v>
       </c>
       <c r="C349" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D349" t="inlineStr">
         <is>
@@ -22792,7 +22792,7 @@
         <v>44998</v>
       </c>
       <c r="C350" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D350" t="inlineStr">
         <is>
@@ -22854,7 +22854,7 @@
         <v>44998</v>
       </c>
       <c r="C351" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D351" t="inlineStr">
         <is>
@@ -22916,7 +22916,7 @@
         <v>45058</v>
       </c>
       <c r="C352" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D352" t="inlineStr">
         <is>
@@ -22973,7 +22973,7 @@
         <v>45170</v>
       </c>
       <c r="C353" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D353" t="inlineStr">
         <is>
@@ -23030,7 +23030,7 @@
         <v>44904</v>
       </c>
       <c r="C354" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D354" t="inlineStr">
         <is>
@@ -23092,7 +23092,7 @@
         <v>45407</v>
       </c>
       <c r="C355" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D355" t="inlineStr">
         <is>
@@ -23149,7 +23149,7 @@
         <v>44469</v>
       </c>
       <c r="C356" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D356" t="inlineStr">
         <is>
@@ -23206,7 +23206,7 @@
         <v>45966.52162037037</v>
       </c>
       <c r="C357" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D357" t="inlineStr">
         <is>
@@ -23263,7 +23263,7 @@
         <v>45966.69065972222</v>
       </c>
       <c r="C358" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D358" t="inlineStr">
         <is>
@@ -23320,7 +23320,7 @@
         <v>45966.70978009259</v>
       </c>
       <c r="C359" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D359" t="inlineStr">
         <is>
@@ -23377,7 +23377,7 @@
         <v>45966.49600694444</v>
       </c>
       <c r="C360" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D360" t="inlineStr">
         <is>
@@ -23434,7 +23434,7 @@
         <v>45967.67565972222</v>
       </c>
       <c r="C361" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D361" t="inlineStr">
         <is>
@@ -23491,7 +23491,7 @@
         <v>44626</v>
       </c>
       <c r="C362" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D362" t="inlineStr">
         <is>
@@ -23548,7 +23548,7 @@
         <v>45119</v>
       </c>
       <c r="C363" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D363" t="inlineStr">
         <is>
@@ -23610,7 +23610,7 @@
         <v>44803.35975694445</v>
       </c>
       <c r="C364" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D364" t="inlineStr">
         <is>
@@ -23667,7 +23667,7 @@
         <v>44803.37219907407</v>
       </c>
       <c r="C365" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D365" t="inlineStr">
         <is>
@@ -23724,7 +23724,7 @@
         <v>45974.71255787037</v>
       </c>
       <c r="C366" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D366" t="inlineStr">
         <is>
@@ -23781,7 +23781,7 @@
         <v>44426</v>
       </c>
       <c r="C367" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D367" t="inlineStr">
         <is>
@@ -23838,7 +23838,7 @@
         <v>45974.72075231482</v>
       </c>
       <c r="C368" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D368" t="inlineStr">
         <is>
@@ -23895,7 +23895,7 @@
         <v>45229</v>
       </c>
       <c r="C369" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D369" t="inlineStr">
         <is>
@@ -23957,7 +23957,7 @@
         <v>45974.71702546296</v>
       </c>
       <c r="C370" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D370" t="inlineStr">
         <is>
@@ -24014,7 +24014,7 @@
         <v>45974.7244212963</v>
       </c>
       <c r="C371" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D371" t="inlineStr">
         <is>
@@ -24071,7 +24071,7 @@
         <v>45965</v>
       </c>
       <c r="C372" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D372" t="inlineStr">
         <is>
@@ -24128,7 +24128,7 @@
         <v>45977.81913194444</v>
       </c>
       <c r="C373" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D373" t="inlineStr">
         <is>
@@ -24185,7 +24185,7 @@
         <v>45303.44210648148</v>
       </c>
       <c r="C374" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D374" t="inlineStr">
         <is>
@@ -24242,7 +24242,7 @@
         <v>45303.44663194445</v>
       </c>
       <c r="C375" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D375" t="inlineStr">
         <is>
@@ -24299,7 +24299,7 @@
         <v>45979.47262731481</v>
       </c>
       <c r="C376" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D376" t="inlineStr">
         <is>
@@ -24356,7 +24356,7 @@
         <v>45209</v>
       </c>
       <c r="C377" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D377" t="inlineStr">
         <is>
@@ -24413,7 +24413,7 @@
         <v>45979.47452546296</v>
       </c>
       <c r="C378" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D378" t="inlineStr">
         <is>
@@ -24470,7 +24470,7 @@
         <v>45979.47876157407</v>
       </c>
       <c r="C379" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D379" t="inlineStr">
         <is>
@@ -24527,7 +24527,7 @@
         <v>45209.4671875</v>
       </c>
       <c r="C380" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D380" t="inlineStr">
         <is>
@@ -24584,7 +24584,7 @@
         <v>45004</v>
       </c>
       <c r="C381" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D381" t="inlineStr">
         <is>
@@ -24641,7 +24641,7 @@
         <v>45750.48094907407</v>
       </c>
       <c r="C382" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D382" t="inlineStr">
         <is>
@@ -24698,7 +24698,7 @@
         <v>45604.63023148148</v>
       </c>
       <c r="C383" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D383" t="inlineStr">
         <is>
@@ -24755,7 +24755,7 @@
         <v>45146</v>
       </c>
       <c r="C384" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D384" t="inlineStr">
         <is>
@@ -24817,7 +24817,7 @@
         <v>45973</v>
       </c>
       <c r="C385" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D385" t="inlineStr">
         <is>
@@ -24879,7 +24879,7 @@
         <v>44467</v>
       </c>
       <c r="C386" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D386" t="inlineStr">
         <is>
@@ -24936,7 +24936,7 @@
         <v>45992.63881944444</v>
       </c>
       <c r="C387" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D387" t="inlineStr">
         <is>
@@ -24993,7 +24993,7 @@
         <v>45992.65880787037</v>
       </c>
       <c r="C388" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D388" t="inlineStr">
         <is>
@@ -25050,7 +25050,7 @@
         <v>45166.54261574074</v>
       </c>
       <c r="C389" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D389" t="inlineStr">
         <is>
@@ -25107,7 +25107,7 @@
         <v>45603</v>
       </c>
       <c r="C390" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D390" t="inlineStr">
         <is>
@@ -25164,7 +25164,7 @@
         <v>45992.60670138889</v>
       </c>
       <c r="C391" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D391" t="inlineStr">
         <is>
@@ -25221,7 +25221,7 @@
         <v>45992.619375</v>
       </c>
       <c r="C392" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D392" t="inlineStr">
         <is>
@@ -25278,7 +25278,7 @@
         <v>45992.61385416667</v>
       </c>
       <c r="C393" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D393" t="inlineStr">
         <is>
@@ -25335,7 +25335,7 @@
         <v>45077.52649305556</v>
       </c>
       <c r="C394" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D394" t="inlineStr">
         <is>
@@ -25392,7 +25392,7 @@
         <v>45992.64505787037</v>
       </c>
       <c r="C395" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D395" t="inlineStr">
         <is>
@@ -25449,7 +25449,7 @@
         <v>45303</v>
       </c>
       <c r="C396" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D396" t="inlineStr">
         <is>
@@ -25506,7 +25506,7 @@
         <v>45994.75143518519</v>
       </c>
       <c r="C397" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D397" t="inlineStr">
         <is>
@@ -25563,7 +25563,7 @@
         <v>45061</v>
       </c>
       <c r="C398" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D398" t="inlineStr">
         <is>
@@ -25625,7 +25625,7 @@
         <v>45756</v>
       </c>
       <c r="C399" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D399" t="inlineStr">
         <is>
@@ -25687,7 +25687,7 @@
         <v>45994.74487268519</v>
       </c>
       <c r="C400" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D400" t="inlineStr">
         <is>
@@ -25744,7 +25744,7 @@
         <v>45999.56599537037</v>
       </c>
       <c r="C401" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D401" t="inlineStr">
         <is>
@@ -25801,7 +25801,7 @@
         <v>45999</v>
       </c>
       <c r="C402" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D402" t="inlineStr">
         <is>
@@ -25863,7 +25863,7 @@
         <v>44732</v>
       </c>
       <c r="C403" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D403" t="inlineStr">
         <is>
@@ -25920,7 +25920,7 @@
         <v>45999.38288194445</v>
       </c>
       <c r="C404" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D404" t="inlineStr">
         <is>
@@ -25977,7 +25977,7 @@
         <v>45643.73109953704</v>
       </c>
       <c r="C405" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D405" t="inlineStr">
         <is>
@@ -26034,7 +26034,7 @@
         <v>45999.63010416667</v>
       </c>
       <c r="C406" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D406" t="inlineStr">
         <is>
@@ -26116,7 +26116,7 @@
         <v>45672</v>
       </c>
       <c r="C407" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D407" t="inlineStr">
         <is>
@@ -26173,7 +26173,7 @@
         <v>44837</v>
       </c>
       <c r="C408" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D408" t="inlineStr">
         <is>
@@ -26235,7 +26235,7 @@
         <v>46001.33653935185</v>
       </c>
       <c r="C409" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D409" t="inlineStr">
         <is>
@@ -26292,7 +26292,7 @@
         <v>46043.42224537037</v>
       </c>
       <c r="C410" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D410" t="inlineStr">
         <is>
@@ -26349,7 +26349,7 @@
         <v>45518.66082175926</v>
       </c>
       <c r="C411" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D411" t="inlineStr">
         <is>
@@ -26411,7 +26411,7 @@
         <v>46000.44707175926</v>
       </c>
       <c r="C412" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D412" t="inlineStr">
         <is>
@@ -26473,7 +26473,7 @@
         <v>45655.72868055556</v>
       </c>
       <c r="C413" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D413" t="inlineStr">
         <is>
@@ -26535,7 +26535,7 @@
         <v>44917</v>
       </c>
       <c r="C414" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D414" t="inlineStr">
         <is>
@@ -26592,7 +26592,7 @@
         <v>46043.41954861111</v>
       </c>
       <c r="C415" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D415" t="inlineStr">
         <is>
@@ -26649,7 +26649,7 @@
         <v>46001</v>
       </c>
       <c r="C416" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D416" t="inlineStr">
         <is>
@@ -26711,7 +26711,7 @@
         <v>45999.90451388889</v>
       </c>
       <c r="C417" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D417" t="inlineStr">
         <is>
@@ -26773,7 +26773,7 @@
         <v>46000.38015046297</v>
       </c>
       <c r="C418" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D418" t="inlineStr">
         <is>
@@ -26835,7 +26835,7 @@
         <v>44886</v>
       </c>
       <c r="C419" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D419" t="inlineStr">
         <is>
@@ -26892,7 +26892,7 @@
         <v>44671</v>
       </c>
       <c r="C420" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D420" t="inlineStr">
         <is>
@@ -26949,7 +26949,7 @@
         <v>45950</v>
       </c>
       <c r="C421" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D421" t="inlineStr">
         <is>
@@ -27006,7 +27006,7 @@
         <v>44284</v>
       </c>
       <c r="C422" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D422" t="inlineStr">
         <is>
@@ -27063,7 +27063,7 @@
         <v>44285</v>
       </c>
       <c r="C423" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D423" t="inlineStr">
         <is>
@@ -27120,7 +27120,7 @@
         <v>45435</v>
       </c>
       <c r="C424" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D424" t="inlineStr">
         <is>
@@ -27177,7 +27177,7 @@
         <v>44468</v>
       </c>
       <c r="C425" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D425" t="inlineStr">
         <is>
@@ -27234,7 +27234,7 @@
         <v>44942</v>
       </c>
       <c r="C426" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D426" t="inlineStr">
         <is>
@@ -27291,7 +27291,7 @@
         <v>44572.44108796296</v>
       </c>
       <c r="C427" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D427" t="inlineStr">
         <is>
@@ -27348,7 +27348,7 @@
         <v>44797.38288194445</v>
       </c>
       <c r="C428" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D428" t="inlineStr">
         <is>
@@ -27405,7 +27405,7 @@
         <v>45429</v>
       </c>
       <c r="C429" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D429" t="inlineStr">
         <is>
@@ -27462,7 +27462,7 @@
         <v>44916.35059027778</v>
       </c>
       <c r="C430" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D430" t="inlineStr">
         <is>
@@ -27519,7 +27519,7 @@
         <v>44832</v>
       </c>
       <c r="C431" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D431" t="inlineStr">
         <is>
@@ -27576,7 +27576,7 @@
         <v>45965</v>
       </c>
       <c r="C432" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D432" t="inlineStr">
         <is>
@@ -27633,7 +27633,7 @@
         <v>46010.34185185185</v>
       </c>
       <c r="C433" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D433" t="inlineStr">
         <is>
@@ -27695,7 +27695,7 @@
         <v>44588</v>
       </c>
       <c r="C434" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D434" t="inlineStr">
         <is>
@@ -27752,7 +27752,7 @@
         <v>44382</v>
       </c>
       <c r="C435" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D435" t="inlineStr">
         <is>
@@ -27809,7 +27809,7 @@
         <v>45387.47462962963</v>
       </c>
       <c r="C436" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D436" t="inlineStr">
         <is>
@@ -27866,7 +27866,7 @@
         <v>44804</v>
       </c>
       <c r="C437" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D437" t="inlineStr">
         <is>
@@ -27923,7 +27923,7 @@
         <v>44918</v>
       </c>
       <c r="C438" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D438" t="inlineStr">
         <is>
@@ -27980,7 +27980,7 @@
         <v>45107</v>
       </c>
       <c r="C439" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D439" t="inlineStr">
         <is>
@@ -28042,7 +28042,7 @@
         <v>44729.76435185185</v>
       </c>
       <c r="C440" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D440" t="inlineStr">
         <is>
@@ -28104,7 +28104,7 @@
         <v>45363.84224537037</v>
       </c>
       <c r="C441" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D441" t="inlineStr">
         <is>
@@ -28166,7 +28166,7 @@
         <v>45737.56878472222</v>
       </c>
       <c r="C442" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D442" t="inlineStr">
         <is>
@@ -28223,7 +28223,7 @@
         <v>45664</v>
       </c>
       <c r="C443" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D443" t="inlineStr">
         <is>
@@ -28285,7 +28285,7 @@
         <v>45093</v>
       </c>
       <c r="C444" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D444" t="inlineStr">
         <is>
@@ -28342,7 +28342,7 @@
         <v>44966</v>
       </c>
       <c r="C445" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D445" t="inlineStr">
         <is>
@@ -28399,7 +28399,7 @@
         <v>45587.76261574074</v>
       </c>
       <c r="C446" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D446" t="inlineStr">
         <is>
@@ -28456,7 +28456,7 @@
         <v>44452</v>
       </c>
       <c r="C447" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D447" t="inlineStr">
         <is>
@@ -28513,7 +28513,7 @@
         <v>45103</v>
       </c>
       <c r="C448" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D448" t="inlineStr">
         <is>
@@ -28570,7 +28570,7 @@
         <v>45103</v>
       </c>
       <c r="C449" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D449" t="inlineStr">
         <is>
@@ -28627,7 +28627,7 @@
         <v>44956.65453703704</v>
       </c>
       <c r="C450" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D450" t="inlineStr">
         <is>
@@ -28684,7 +28684,7 @@
         <v>45429</v>
       </c>
       <c r="C451" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D451" t="inlineStr">
         <is>
@@ -28741,7 +28741,7 @@
         <v>44938.45799768518</v>
       </c>
       <c r="C452" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D452" t="inlineStr">
         <is>
@@ -28798,7 +28798,7 @@
         <v>44851</v>
       </c>
       <c r="C453" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D453" t="inlineStr">
         <is>
@@ -28855,7 +28855,7 @@
         <v>45069.42476851852</v>
       </c>
       <c r="C454" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D454" t="inlineStr">
         <is>
@@ -28912,7 +28912,7 @@
         <v>46069.76747685186</v>
       </c>
       <c r="C455" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D455" t="inlineStr">
         <is>
@@ -28969,7 +28969,7 @@
         <v>44606</v>
       </c>
       <c r="C456" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D456" t="inlineStr">
         <is>
@@ -29031,7 +29031,7 @@
         <v>45611.67729166667</v>
       </c>
       <c r="C457" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D457" t="inlineStr">
         <is>
@@ -29088,7 +29088,7 @@
         <v>45545.79994212963</v>
       </c>
       <c r="C458" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D458" t="inlineStr">
         <is>
@@ -29145,7 +29145,7 @@
         <v>44998.81229166667</v>
       </c>
       <c r="C459" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D459" t="inlineStr">
         <is>
@@ -29202,7 +29202,7 @@
         <v>44426</v>
       </c>
       <c r="C460" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D460" t="inlineStr">
         <is>
@@ -29259,7 +29259,7 @@
         <v>44915</v>
       </c>
       <c r="C461" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D461" t="inlineStr">
         <is>
@@ -29316,7 +29316,7 @@
         <v>44966</v>
       </c>
       <c r="C462" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D462" t="inlineStr">
         <is>
@@ -29373,7 +29373,7 @@
         <v>44865</v>
       </c>
       <c r="C463" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D463" t="inlineStr">
         <is>
@@ -29435,7 +29435,7 @@
         <v>44362</v>
       </c>
       <c r="C464" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D464" t="inlineStr">
         <is>
@@ -29497,7 +29497,7 @@
         <v>46048</v>
       </c>
       <c r="C465" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D465" t="inlineStr">
         <is>
@@ -29554,7 +29554,7 @@
         <v>44592</v>
       </c>
       <c r="C466" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D466" t="inlineStr">
         <is>
@@ -29611,7 +29611,7 @@
         <v>45464.44983796297</v>
       </c>
       <c r="C467" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D467" t="inlineStr">
         <is>
@@ -29668,7 +29668,7 @@
         <v>45531.34680555556</v>
       </c>
       <c r="C468" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D468" t="inlineStr">
         <is>
@@ -29725,7 +29725,7 @@
         <v>44522</v>
       </c>
       <c r="C469" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D469" t="inlineStr">
         <is>
@@ -29787,7 +29787,7 @@
         <v>45266</v>
       </c>
       <c r="C470" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D470" t="inlineStr">
         <is>
@@ -29844,7 +29844,7 @@
         <v>45266</v>
       </c>
       <c r="C471" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D471" t="inlineStr">
         <is>
@@ -29901,7 +29901,7 @@
         <v>44499</v>
       </c>
       <c r="C472" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D472" t="inlineStr">
         <is>
@@ -29958,7 +29958,7 @@
         <v>44536</v>
       </c>
       <c r="C473" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D473" t="inlineStr">
         <is>
@@ -30015,7 +30015,7 @@
         <v>46073.71699074074</v>
       </c>
       <c r="C474" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D474" t="inlineStr">
         <is>
@@ -30072,7 +30072,7 @@
         <v>45713</v>
       </c>
       <c r="C475" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D475" t="inlineStr">
         <is>
@@ -30134,7 +30134,7 @@
         <v>44617</v>
       </c>
       <c r="C476" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D476" t="inlineStr">
         <is>
@@ -30191,7 +30191,7 @@
         <v>44482.55453703704</v>
       </c>
       <c r="C477" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D477" t="inlineStr">
         <is>
@@ -30248,7 +30248,7 @@
         <v>44739.4487037037</v>
       </c>
       <c r="C478" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D478" t="inlineStr">
         <is>
@@ -30305,7 +30305,7 @@
         <v>44964</v>
       </c>
       <c r="C479" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D479" t="inlineStr">
         <is>
@@ -30362,7 +30362,7 @@
         <v>44930</v>
       </c>
       <c r="C480" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D480" t="inlineStr">
         <is>
@@ -30419,7 +30419,7 @@
         <v>44889</v>
       </c>
       <c r="C481" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D481" t="inlineStr">
         <is>
@@ -30476,7 +30476,7 @@
         <v>45608</v>
       </c>
       <c r="C482" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D482" t="inlineStr">
         <is>
@@ -30538,7 +30538,7 @@
         <v>44698</v>
       </c>
       <c r="C483" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D483" t="inlineStr">
         <is>
@@ -30600,7 +30600,7 @@
         <v>45715</v>
       </c>
       <c r="C484" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D484" t="inlineStr">
         <is>
@@ -30657,7 +30657,7 @@
         <v>45387.63100694444</v>
       </c>
       <c r="C485" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D485" t="inlineStr">
         <is>
@@ -30719,7 +30719,7 @@
         <v>45680</v>
       </c>
       <c r="C486" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D486" t="inlineStr">
         <is>
@@ -30776,7 +30776,7 @@
         <v>44852.260625</v>
       </c>
       <c r="C487" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D487" t="inlineStr">
         <is>
@@ -30833,7 +30833,7 @@
         <v>44729.38819444444</v>
       </c>
       <c r="C488" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D488" t="inlineStr">
         <is>
@@ -30890,7 +30890,7 @@
         <v>44392.5977662037</v>
       </c>
       <c r="C489" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D489" t="inlineStr">
         <is>
@@ -30952,7 +30952,7 @@
         <v>44741.72256944444</v>
       </c>
       <c r="C490" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D490" t="inlineStr">
         <is>
@@ -31009,7 +31009,7 @@
         <v>45267.63392361111</v>
       </c>
       <c r="C491" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D491" t="inlineStr">
         <is>
@@ -31066,7 +31066,7 @@
         <v>45267.64305555556</v>
       </c>
       <c r="C492" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D492" t="inlineStr">
         <is>
@@ -31123,7 +31123,7 @@
         <v>45680</v>
       </c>
       <c r="C493" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D493" t="inlineStr">
         <is>
@@ -31180,7 +31180,7 @@
         <v>45655.7484375</v>
       </c>
       <c r="C494" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D494" t="inlineStr">
         <is>
@@ -31242,7 +31242,7 @@
         <v>45329</v>
       </c>
       <c r="C495" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D495" t="inlineStr">
         <is>
@@ -31304,7 +31304,7 @@
         <v>45190</v>
       </c>
       <c r="C496" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D496" t="inlineStr">
         <is>
@@ -31361,7 +31361,7 @@
         <v>45183</v>
       </c>
       <c r="C497" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D497" t="inlineStr">
         <is>
@@ -31423,7 +31423,7 @@
         <v>44851</v>
       </c>
       <c r="C498" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D498" t="inlineStr">
         <is>
@@ -31480,7 +31480,7 @@
         <v>45723.62978009259</v>
       </c>
       <c r="C499" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D499" t="inlineStr">
         <is>
@@ -31537,7 +31537,7 @@
         <v>45363.94168981481</v>
       </c>
       <c r="C500" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D500" t="inlineStr">
         <is>
@@ -31599,7 +31599,7 @@
         <v>45622.68819444445</v>
       </c>
       <c r="C501" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D501" t="inlineStr">
         <is>
@@ -31656,7 +31656,7 @@
         <v>44515.65760416666</v>
       </c>
       <c r="C502" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D502" t="inlineStr">
         <is>
@@ -31713,7 +31713,7 @@
         <v>44664</v>
       </c>
       <c r="C503" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D503" t="inlineStr">
         <is>
@@ -31770,7 +31770,7 @@
         <v>45734</v>
       </c>
       <c r="C504" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D504" t="inlineStr">
         <is>
@@ -31827,7 +31827,7 @@
         <v>44789</v>
       </c>
       <c r="C505" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D505" t="inlineStr">
         <is>
@@ -31884,7 +31884,7 @@
         <v>45229</v>
       </c>
       <c r="C506" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D506" t="inlineStr">
         <is>
@@ -31941,7 +31941,7 @@
         <v>45229</v>
       </c>
       <c r="C507" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D507" t="inlineStr">
         <is>
@@ -32003,7 +32003,7 @@
         <v>45303.4247337963</v>
       </c>
       <c r="C508" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D508" t="inlineStr">
         <is>
@@ -32060,7 +32060,7 @@
         <v>44917</v>
       </c>
       <c r="C509" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D509" t="inlineStr">
         <is>
@@ -32117,7 +32117,7 @@
         <v>44903</v>
       </c>
       <c r="C510" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D510" t="inlineStr">
         <is>
@@ -32174,7 +32174,7 @@
         <v>44903</v>
       </c>
       <c r="C511" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D511" t="inlineStr">
         <is>
@@ -32231,7 +32231,7 @@
         <v>44473</v>
       </c>
       <c r="C512" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D512" t="inlineStr">
         <is>
@@ -32288,7 +32288,7 @@
         <v>45737</v>
       </c>
       <c r="C513" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D513" t="inlineStr">
         <is>
@@ -32345,7 +32345,7 @@
         <v>44886</v>
       </c>
       <c r="C514" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D514" t="inlineStr">
         <is>
@@ -32402,7 +32402,7 @@
         <v>44355</v>
       </c>
       <c r="C515" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D515" t="inlineStr">
         <is>
@@ -32459,7 +32459,7 @@
         <v>44571.58237268519</v>
       </c>
       <c r="C516" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D516" t="inlineStr">
         <is>
@@ -32516,7 +32516,7 @@
         <v>45303</v>
       </c>
       <c r="C517" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D517" t="inlineStr">
         <is>
@@ -32573,7 +32573,7 @@
         <v>45303.43546296296</v>
       </c>
       <c r="C518" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D518" t="inlineStr">
         <is>
@@ -32630,7 +32630,7 @@
         <v>45303.44876157407</v>
       </c>
       <c r="C519" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D519" t="inlineStr">
         <is>
@@ -32687,7 +32687,7 @@
         <v>45763</v>
       </c>
       <c r="C520" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D520" t="inlineStr">
         <is>
@@ -32744,7 +32744,7 @@
         <v>44739.45480324074</v>
       </c>
       <c r="C521" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D521" t="inlineStr">
         <is>
@@ -32801,7 +32801,7 @@
         <v>44298</v>
       </c>
       <c r="C522" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D522" t="inlineStr">
         <is>
@@ -32858,7 +32858,7 @@
         <v>45167.35505787037</v>
       </c>
       <c r="C523" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D523" t="inlineStr">
         <is>
@@ -32915,7 +32915,7 @@
         <v>44638</v>
       </c>
       <c r="C524" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D524" t="inlineStr">
         <is>
@@ -32972,7 +32972,7 @@
         <v>45210.35028935185</v>
       </c>
       <c r="C525" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D525" t="inlineStr">
         <is>
@@ -33029,7 +33029,7 @@
         <v>45307</v>
       </c>
       <c r="C526" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D526" t="inlineStr">
         <is>
@@ -33091,7 +33091,7 @@
         <v>44525.90324074074</v>
       </c>
       <c r="C527" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D527" t="inlineStr">
         <is>
@@ -33148,7 +33148,7 @@
         <v>44497</v>
       </c>
       <c r="C528" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D528" t="inlineStr">
         <is>
@@ -33205,7 +33205,7 @@
         <v>44251</v>
       </c>
       <c r="C529" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D529" t="inlineStr">
         <is>
@@ -33262,7 +33262,7 @@
         <v>45182</v>
       </c>
       <c r="C530" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D530" t="inlineStr">
         <is>
@@ -33324,7 +33324,7 @@
         <v>44749</v>
       </c>
       <c r="C531" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D531" t="inlineStr">
         <is>
@@ -33381,7 +33381,7 @@
         <v>44946</v>
       </c>
       <c r="C532" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D532" t="inlineStr">
         <is>
@@ -33438,7 +33438,7 @@
         <v>45159</v>
       </c>
       <c r="C533" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D533" t="inlineStr">
         <is>
@@ -33500,7 +33500,7 @@
         <v>44746.35266203704</v>
       </c>
       <c r="C534" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D534" t="inlineStr">
         <is>
@@ -33557,7 +33557,7 @@
         <v>45056</v>
       </c>
       <c r="C535" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D535" t="inlineStr">
         <is>
@@ -33619,7 +33619,7 @@
         <v>45071</v>
       </c>
       <c r="C536" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D536" t="inlineStr">
         <is>
@@ -33681,7 +33681,7 @@
         <v>45183</v>
       </c>
       <c r="C537" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D537" t="inlineStr">
         <is>
@@ -33743,7 +33743,7 @@
         <v>45615.87693287037</v>
       </c>
       <c r="C538" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D538" t="inlineStr">
         <is>
@@ -33800,7 +33800,7 @@
         <v>45776</v>
       </c>
       <c r="C539" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D539" t="inlineStr">
         <is>
@@ -33857,7 +33857,7 @@
         <v>45674</v>
       </c>
       <c r="C540" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D540" t="inlineStr">
         <is>
@@ -33914,7 +33914,7 @@
         <v>45642.89609953704</v>
       </c>
       <c r="C541" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D541" t="inlineStr">
         <is>
@@ -33976,7 +33976,7 @@
         <v>45737.54170138889</v>
       </c>
       <c r="C542" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D542" t="inlineStr">
         <is>
@@ -34033,7 +34033,7 @@
         <v>45365.59789351852</v>
       </c>
       <c r="C543" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D543" t="inlineStr">
         <is>
@@ -34090,7 +34090,7 @@
         <v>44953.79731481482</v>
       </c>
       <c r="C544" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D544" t="inlineStr">
         <is>
@@ -34152,7 +34152,7 @@
         <v>45642</v>
       </c>
       <c r="C545" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D545" t="inlineStr">
         <is>
@@ -34214,7 +34214,7 @@
         <v>44593</v>
       </c>
       <c r="C546" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D546" t="inlineStr">
         <is>
@@ -34271,7 +34271,7 @@
         <v>45049</v>
       </c>
       <c r="C547" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D547" t="inlineStr">
         <is>
@@ -34328,7 +34328,7 @@
         <v>45792.379375</v>
       </c>
       <c r="C548" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D548" t="inlineStr">
         <is>
@@ -34385,7 +34385,7 @@
         <v>45791.85936342592</v>
       </c>
       <c r="C549" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D549" t="inlineStr">
         <is>
@@ -34442,7 +34442,7 @@
         <v>45792.35003472222</v>
       </c>
       <c r="C550" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D550" t="inlineStr">
         <is>
@@ -34499,7 +34499,7 @@
         <v>45798.63770833334</v>
       </c>
       <c r="C551" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D551" t="inlineStr">
         <is>
@@ -34556,7 +34556,7 @@
         <v>45798.64900462963</v>
       </c>
       <c r="C552" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D552" t="inlineStr">
         <is>
@@ -34613,7 +34613,7 @@
         <v>45798.67103009259</v>
       </c>
       <c r="C553" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D553" t="inlineStr">
         <is>
@@ -34670,7 +34670,7 @@
         <v>45798.64447916667</v>
       </c>
       <c r="C554" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D554" t="inlineStr">
         <is>
@@ -34727,7 +34727,7 @@
         <v>45798.64721064815</v>
       </c>
       <c r="C555" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D555" t="inlineStr">
         <is>
@@ -34784,7 +34784,7 @@
         <v>45798.66695601852</v>
       </c>
       <c r="C556" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D556" t="inlineStr">
         <is>
@@ -34841,7 +34841,7 @@
         <v>45798.43306712963</v>
       </c>
       <c r="C557" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D557" t="inlineStr">
         <is>
@@ -34903,7 +34903,7 @@
         <v>45798.43482638889</v>
       </c>
       <c r="C558" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D558" t="inlineStr">
         <is>
@@ -34965,7 +34965,7 @@
         <v>45798</v>
       </c>
       <c r="C559" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D559" t="inlineStr">
         <is>
@@ -35027,7 +35027,7 @@
         <v>45568.90701388889</v>
       </c>
       <c r="C560" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D560" t="inlineStr">
         <is>
@@ -35089,7 +35089,7 @@
         <v>45568.90762731482</v>
       </c>
       <c r="C561" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D561" t="inlineStr">
         <is>
@@ -35151,7 +35151,7 @@
         <v>45798.43913194445</v>
       </c>
       <c r="C562" s="1" t="n">
-        <v>46075</v>
+        <v>46076</v>
       </c>
       <c r="D562" t="inlineStr">
         <is>
